--- a/excel/07.xlsx
+++ b/excel/07.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yabuki\Dropbox\it-chiba\データ解析入門\analysis\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4E9454-B998-4CFE-94C2-E8B57735AE37}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADF0B04-7114-499E-AC6D-72F042E13699}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="340" windowWidth="19320" windowHeight="19840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="340" yWindow="340" windowWidth="20900" windowHeight="18340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -762,10 +762,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>←③B84をコピペ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>←④平均を求めます．</t>
     <rPh sb="2" eb="4">
       <t>ヘイキン</t>
@@ -837,16 +833,6 @@
     </rPh>
     <rPh sb="22" eb="24">
       <t>ヘンサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>←②偏差「=A84-A$89」を求めます．</t>
-    <rPh sb="2" eb="4">
-      <t>ヘンサ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>モト</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2221,6 +2207,20 @@
     <rPh sb="32" eb="34">
       <t>ヘンサ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←②偏差「=A85-A$90」を求めます．</t>
+    <rPh sb="2" eb="4">
+      <t>ヘンサ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←③B85をコピペ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2596,7 +2596,9 @@
   </sheetPr>
   <dimension ref="A1:XFD244"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -2611,7 +2613,7 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G1">
         <f>F243</f>
@@ -3081,7 +3083,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -3089,7 +3091,7 @@
         <v>63</v>
       </c>
       <c r="B84" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -3098,7 +3100,7 @@
       </c>
       <c r="B85" s="6"/>
       <c r="C85" s="1" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -3107,7 +3109,7 @@
       </c>
       <c r="B86" s="6"/>
       <c r="C86" s="2" t="s">
-        <v>70</v>
+        <v>167</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -3116,7 +3118,7 @@
       </c>
       <c r="B87" s="6"/>
       <c r="C87" s="2" t="s">
-        <v>70</v>
+        <v>167</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -3125,7 +3127,7 @@
       </c>
       <c r="B88" s="6"/>
       <c r="C88" s="2" t="s">
-        <v>70</v>
+        <v>167</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -3134,14 +3136,14 @@
       </c>
       <c r="B89" s="6"/>
       <c r="C89" s="2" t="s">
-        <v>70</v>
+        <v>167</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -3151,47 +3153,47 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3199,10 +3201,10 @@
         <v>63</v>
       </c>
       <c r="B104" t="s">
+        <v>81</v>
+      </c>
+      <c r="C104" t="s">
         <v>83</v>
-      </c>
-      <c r="C104" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3212,7 +3214,7 @@
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
       <c r="D105" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3222,7 +3224,7 @@
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
       <c r="D106" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3232,7 +3234,7 @@
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
       <c r="D107" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3242,7 +3244,7 @@
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
       <c r="D108" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3252,7 +3254,7 @@
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
       <c r="D109" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3260,7 +3262,7 @@
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
       <c r="D110" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3268,51 +3270,51 @@
         <v>68</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C111" s="6"/>
       <c r="D111" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -3320,10 +3322,10 @@
         <v>64</v>
       </c>
       <c r="B123" t="s">
+        <v>81</v>
+      </c>
+      <c r="C123" t="s">
         <v>83</v>
-      </c>
-      <c r="C123" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -3364,7 +3366,7 @@
     <row r="129" spans="1:4">
       <c r="C129" s="6"/>
       <c r="D129" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3372,22 +3374,22 @@
       <c r="B130" s="1"/>
       <c r="C130" s="6"/>
       <c r="D130" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3442,28 +3444,28 @@
       <c r="A143" s="6"/>
       <c r="B143" s="6"/>
       <c r="C143" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="6"/>
       <c r="B144" s="6"/>
       <c r="C144" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="6"/>
       <c r="B145" s="6"/>
       <c r="C145" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="6"/>
       <c r="B146" s="6"/>
       <c r="C146" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -3481,17 +3483,17 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3546,57 +3548,57 @@
       <c r="A161" s="6"/>
       <c r="B161" s="6"/>
       <c r="C161" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="162" spans="1:10">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
       <c r="C162" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="163" spans="1:10">
       <c r="A163" s="6"/>
       <c r="B163" s="6"/>
       <c r="C163" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="164" spans="1:10">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="C164" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="165" spans="1:10">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="C165" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="166" spans="1:10">
       <c r="A166" s="6"/>
       <c r="B166" s="6"/>
       <c r="C166" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="169" spans="1:10">
       <c r="A169" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="170" spans="1:10">
       <c r="A170" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="171" spans="1:10">
       <c r="A171" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="172" spans="1:10">
@@ -3634,50 +3636,50 @@
     <row r="173" spans="1:10">
       <c r="A173" s="6"/>
       <c r="B173" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="174" spans="1:10">
       <c r="A174" s="6"/>
       <c r="B174" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="175" spans="1:10">
       <c r="A175" s="6"/>
       <c r="B175" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="178" spans="1:8">
       <c r="A178" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B178" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C178" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D178" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E178" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E178" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="F178" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H178" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="G178" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H178" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -3822,7 +3824,7 @@
     </row>
     <row r="189" spans="1:8">
       <c r="B189" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D189" s="6"/>
       <c r="E189" s="6"/>
@@ -3830,13 +3832,13 @@
     </row>
     <row r="190" spans="1:8">
       <c r="D190" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -3852,15 +3854,15 @@
         <v>9</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="193" spans="1:8">
       <c r="E193" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G193" s="3" t="s">
         <v>14</v>
@@ -3869,310 +3871,310 @@
     </row>
     <row r="194" spans="1:8">
       <c r="H194" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="196" spans="1:8">
       <c r="A196" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="197" spans="1:8">
       <c r="A197" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="198" spans="1:8">
       <c r="A198" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="199" spans="1:8">
       <c r="A199" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="200" spans="1:8">
       <c r="A200" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="201" spans="1:8">
       <c r="A201" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="202" spans="1:8">
       <c r="A202" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="203" spans="1:8">
       <c r="A203" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="204" spans="1:8">
       <c r="A204" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="206" spans="1:8">
       <c r="A206" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="207" spans="1:8">
       <c r="A207" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="6"/>
       <c r="B208" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="209" spans="1:16384">
       <c r="A209" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="210" spans="1:16384">
       <c r="A210" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="213" spans="1:16384">
       <c r="A213" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="214" spans="1:16384">
       <c r="A214" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="215" spans="1:16384">
       <c r="A215">
         <f ca="1">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B215">
         <f t="shared" ref="B215:BM215" ca="1" si="0">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C215">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D215">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E215">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F215">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="G215">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H215">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="I215">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J215">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="K215">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="L215">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="M215">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="N215">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="O215">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P215">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q215">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R215">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="S215">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="T215">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U215">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="V215">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="W215">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X215">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="Y215">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Z215">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="AA215">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="AB215">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="AC215">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="AD215">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="AE215">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="AF215">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="AG215">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="AH215">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AI215">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AJ215">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="AK215">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="AL215">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="AM215">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="AN215">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="AO215">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="AP215">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="AQ215">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AR215">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="AS215">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="AT215">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AU215">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="AV215">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AW215">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AX215">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AY215">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AZ215">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="BA215">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="BB215">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="BC215">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="BD215">
         <f t="shared" ca="1" si="0"/>
@@ -4180,39 +4182,39 @@
       </c>
       <c r="BE215">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="BF215">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="BG215">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="BH215">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="BI215">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="BJ215">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="BK215">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="BL215">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="BM215">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="BN215">
         <f t="shared" ref="BN215:DY215" ca="1" si="1">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
@@ -4220,247 +4222,247 @@
       </c>
       <c r="BO215">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="BP215">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="BQ215">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="BR215">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="BS215">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="BT215">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="BU215">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="BV215">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="BW215">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="BX215">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="BY215">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="BZ215">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="CA215">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="CB215">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="CC215">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="CD215">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="CE215">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="CF215">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="CG215">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="CH215">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="CI215">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="CJ215">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="CK215">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="CL215">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="CM215">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="CN215">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="CO215">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="CP215">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="CQ215">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="CR215">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="CS215">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="CT215">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="CU215">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="CV215">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="CW215">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="CX215">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="CY215">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="CZ215">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="DA215">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="DB215">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="DC215">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="DD215">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="DE215">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="DF215">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="DG215">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="DH215">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="DI215">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="DJ215">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="DK215">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="DL215">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="DM215">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="DN215">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="DO215">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="DP215">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="DQ215">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="DR215">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="DS215">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="DT215">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="DU215">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="DV215">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="DW215">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="DX215">
         <f t="shared" ca="1" si="1"/>
@@ -4468,107 +4470,107 @@
       </c>
       <c r="DY215">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="DZ215">
         <f t="shared" ref="DZ215:GK215" ca="1" si="2">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="EA215">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="EB215">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="EC215">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="ED215">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="EE215">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="EF215">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="EG215">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="EH215">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="EI215">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="EJ215">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="EK215">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="EL215">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="EM215">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="EN215">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="EO215">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="EP215">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="EQ215">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="ER215">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="ES215">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="ET215">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="EU215">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="EV215">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="EW215">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="EX215">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="EY215">
         <f t="shared" ca="1" si="2"/>
@@ -4576,27 +4578,27 @@
       </c>
       <c r="EZ215">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="FA215">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="FB215">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="FC215">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="FD215">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="FE215">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="FF215">
         <f t="shared" ca="1" si="2"/>
@@ -4604,91 +4606,91 @@
       </c>
       <c r="FG215">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="FH215">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="FI215">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="FJ215">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="FK215">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="FL215">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="FM215">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="FN215">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="FO215">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="FP215">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="FQ215">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="FR215">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="FS215">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="FT215">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="FU215">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="FV215">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="FW215">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="FX215">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="FY215">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="FZ215">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="GA215">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="GB215">
         <f t="shared" ca="1" si="2"/>
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="GC215">
         <f>INT($B$7/100000)</f>
@@ -4708,135 +4710,135 @@
       </c>
       <c r="GG215">
         <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="GH215">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="GI215">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="GJ215">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="GK215">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="GL215">
         <f t="shared" ref="GL215:IW215" ca="1" si="3">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="GM215">
         <f t="shared" ca="1" si="3"/>
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="GN215">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="GO215">
         <f t="shared" ca="1" si="3"/>
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="GP215">
         <f t="shared" ca="1" si="3"/>
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="GQ215">
         <f t="shared" ca="1" si="3"/>
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="GR215">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="GS215">
         <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="GT215">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="GU215">
         <f t="shared" ca="1" si="3"/>
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="GV215">
         <f t="shared" ca="1" si="3"/>
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="GW215">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="GX215">
         <f t="shared" ca="1" si="3"/>
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="GY215">
         <f t="shared" ca="1" si="3"/>
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="GZ215">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="HA215">
         <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="HB215">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="HC215">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="HD215">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="HE215">
         <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="HF215">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="HG215">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="HH215">
         <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="HI215">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="HJ215">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="HK215">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="HL215">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="HM215">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="HN215">
         <f t="shared" ca="1" si="3"/>
@@ -4844,363 +4846,363 @@
       </c>
       <c r="HO215">
         <f t="shared" ca="1" si="3"/>
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="HP215">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="HQ215">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="HR215">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="HS215">
         <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="HT215">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="HU215">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="HV215">
         <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="HW215">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="HX215">
         <f t="shared" ca="1" si="3"/>
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="HY215">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="HZ215">
         <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="IA215">
         <f t="shared" ca="1" si="3"/>
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="IB215">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="IC215">
         <f t="shared" ca="1" si="3"/>
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="ID215">
         <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="IE215">
         <f t="shared" ca="1" si="3"/>
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="IF215">
         <f t="shared" ca="1" si="3"/>
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="IG215">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="IH215">
         <f t="shared" ca="1" si="3"/>
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="II215">
         <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="IJ215">
         <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="IK215">
         <f t="shared" ca="1" si="3"/>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="IL215">
         <f t="shared" ca="1" si="3"/>
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="IM215">
         <f t="shared" ca="1" si="3"/>
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="IN215">
         <f t="shared" ca="1" si="3"/>
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="IO215">
         <f t="shared" ca="1" si="3"/>
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="IP215">
         <f t="shared" ca="1" si="3"/>
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="IQ215">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="IR215">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="IS215">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="IT215">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="IU215">
         <f t="shared" ca="1" si="3"/>
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="IV215">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="IW215">
         <f t="shared" ca="1" si="3"/>
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="IX215">
         <f t="shared" ref="IX215:LI215" ca="1" si="4">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="IY215">
         <f t="shared" ca="1" si="4"/>
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="IZ215">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="JA215">
         <f t="shared" ca="1" si="4"/>
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="JB215">
         <f t="shared" ca="1" si="4"/>
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="JC215">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="JD215">
         <f t="shared" ca="1" si="4"/>
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="JE215">
         <f t="shared" ca="1" si="4"/>
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="JF215">
         <f t="shared" ca="1" si="4"/>
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="JG215">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="JH215">
         <f t="shared" ca="1" si="4"/>
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="JI215">
         <f t="shared" ca="1" si="4"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="JJ215">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="JK215">
         <f t="shared" ca="1" si="4"/>
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="JL215">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="JM215">
         <f t="shared" ca="1" si="4"/>
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="JN215">
         <f t="shared" ca="1" si="4"/>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="JO215">
         <f t="shared" ca="1" si="4"/>
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="JP215">
         <f t="shared" ca="1" si="4"/>
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="JQ215">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="JR215">
         <f t="shared" ca="1" si="4"/>
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="JS215">
         <f t="shared" ca="1" si="4"/>
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="JT215">
         <f t="shared" ca="1" si="4"/>
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="JU215">
         <f t="shared" ca="1" si="4"/>
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="JV215">
         <f t="shared" ca="1" si="4"/>
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="JW215">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="JX215">
         <f t="shared" ca="1" si="4"/>
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="JY215">
         <f t="shared" ca="1" si="4"/>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="JZ215">
         <f t="shared" ca="1" si="4"/>
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="KA215">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="KB215">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="KC215">
         <f t="shared" ca="1" si="4"/>
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="KD215">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="KE215">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="KF215">
         <f t="shared" ca="1" si="4"/>
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="KG215">
         <f t="shared" ca="1" si="4"/>
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="KH215">
         <f t="shared" ca="1" si="4"/>
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="KI215">
         <f t="shared" ca="1" si="4"/>
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="KJ215">
         <f t="shared" ca="1" si="4"/>
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="KK215">
         <f t="shared" ca="1" si="4"/>
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="KL215">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="KM215">
         <f t="shared" ca="1" si="4"/>
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="KN215">
         <f t="shared" ca="1" si="4"/>
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="KO215">
         <f t="shared" ca="1" si="4"/>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="KP215">
         <f t="shared" ca="1" si="4"/>
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="KQ215">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="KR215">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="KS215">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="KT215">
         <f t="shared" ca="1" si="4"/>
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="KU215">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="KV215">
         <f t="shared" ca="1" si="4"/>
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="KW215">
         <f t="shared" ca="1" si="4"/>
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="KX215">
         <f t="shared" ca="1" si="4"/>
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="KY215">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="KZ215">
         <f t="shared" ca="1" si="4"/>
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="LA215">
         <f t="shared" ca="1" si="4"/>
@@ -5208,295 +5210,295 @@
       </c>
       <c r="LB215">
         <f t="shared" ca="1" si="4"/>
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="LC215">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="LD215">
         <f t="shared" ca="1" si="4"/>
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="LE215">
         <f t="shared" ca="1" si="4"/>
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="LF215">
         <f t="shared" ca="1" si="4"/>
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="LG215">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="LH215">
         <f t="shared" ca="1" si="4"/>
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="LI215">
         <f t="shared" ca="1" si="4"/>
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="LJ215">
         <f t="shared" ref="LJ215:NU215" ca="1" si="5">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="LK215">
         <f t="shared" ca="1" si="5"/>
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="LL215">
         <f t="shared" ca="1" si="5"/>
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="LM215">
         <f t="shared" ca="1" si="5"/>
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="LN215">
         <f t="shared" ca="1" si="5"/>
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="LO215">
         <f t="shared" ca="1" si="5"/>
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="LP215">
         <f t="shared" ca="1" si="5"/>
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="LQ215">
         <f t="shared" ca="1" si="5"/>
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="LR215">
         <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="LS215">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="LT215">
         <f t="shared" ca="1" si="5"/>
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="LU215">
         <f t="shared" ca="1" si="5"/>
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="LV215">
         <f t="shared" ca="1" si="5"/>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="LW215">
         <f t="shared" ca="1" si="5"/>
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="LX215">
         <f t="shared" ca="1" si="5"/>
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="LY215">
         <f t="shared" ca="1" si="5"/>
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="LZ215">
         <f t="shared" ca="1" si="5"/>
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="MA215">
         <f t="shared" ca="1" si="5"/>
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="MB215">
         <f t="shared" ca="1" si="5"/>
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="MC215">
         <f t="shared" ca="1" si="5"/>
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="MD215">
         <f t="shared" ca="1" si="5"/>
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="ME215">
         <f t="shared" ca="1" si="5"/>
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="MF215">
         <f t="shared" ca="1" si="5"/>
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="MG215">
         <f t="shared" ca="1" si="5"/>
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="MH215">
         <f t="shared" ca="1" si="5"/>
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="MI215">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="MJ215">
         <f t="shared" ca="1" si="5"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="MK215">
         <f t="shared" ca="1" si="5"/>
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="ML215">
         <f t="shared" ca="1" si="5"/>
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="MM215">
         <f t="shared" ca="1" si="5"/>
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="MN215">
         <f t="shared" ca="1" si="5"/>
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="MO215">
         <f t="shared" ca="1" si="5"/>
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="MP215">
         <f t="shared" ca="1" si="5"/>
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="MQ215">
         <f t="shared" ca="1" si="5"/>
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="MR215">
         <f t="shared" ca="1" si="5"/>
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="MS215">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="MT215">
         <f t="shared" ca="1" si="5"/>
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="MU215">
         <f t="shared" ca="1" si="5"/>
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="MV215">
         <f t="shared" ca="1" si="5"/>
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="MW215">
         <f t="shared" ca="1" si="5"/>
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="MX215">
         <f t="shared" ca="1" si="5"/>
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="MY215">
         <f t="shared" ca="1" si="5"/>
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="MZ215">
         <f t="shared" ca="1" si="5"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="NA215">
         <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NB215">
         <f t="shared" ca="1" si="5"/>
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="NC215">
         <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="ND215">
         <f t="shared" ca="1" si="5"/>
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="NE215">
         <f t="shared" ca="1" si="5"/>
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="NF215">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="NG215">
         <f t="shared" ca="1" si="5"/>
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="NH215">
         <f t="shared" ca="1" si="5"/>
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="NI215">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="NJ215">
         <f t="shared" ca="1" si="5"/>
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="NK215">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="NL215">
         <f t="shared" ca="1" si="5"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="NM215">
         <f t="shared" ca="1" si="5"/>
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="NN215">
         <f t="shared" ca="1" si="5"/>
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="NO215">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="NP215">
         <f t="shared" ca="1" si="5"/>
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="NQ215">
         <f t="shared" ca="1" si="5"/>
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="NR215">
         <f t="shared" ca="1" si="5"/>
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="NS215">
         <f t="shared" ca="1" si="5"/>
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="NT215">
         <f t="shared" ca="1" si="5"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="NU215">
         <f t="shared" ca="1" si="5"/>
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="NV215">
         <f t="shared" ref="NV215:QG215" ca="1" si="6">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="NW215">
         <f t="shared" ca="1" si="6"/>
@@ -5508,375 +5510,375 @@
       </c>
       <c r="NY215">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="NZ215">
         <f t="shared" ca="1" si="6"/>
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="OA215">
         <f t="shared" ca="1" si="6"/>
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="OB215">
         <f t="shared" ca="1" si="6"/>
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="OC215">
         <f t="shared" ca="1" si="6"/>
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="OD215">
         <f t="shared" ca="1" si="6"/>
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="OE215">
         <f t="shared" ca="1" si="6"/>
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="OF215">
         <f t="shared" ca="1" si="6"/>
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="OG215">
         <f t="shared" ca="1" si="6"/>
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="OH215">
         <f t="shared" ca="1" si="6"/>
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="OI215">
         <f t="shared" ca="1" si="6"/>
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="OJ215">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="OK215">
         <f t="shared" ca="1" si="6"/>
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="OL215">
         <f t="shared" ca="1" si="6"/>
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="OM215">
         <f t="shared" ca="1" si="6"/>
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="ON215">
         <f t="shared" ca="1" si="6"/>
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="OO215">
         <f t="shared" ca="1" si="6"/>
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="OP215">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="OQ215">
         <f t="shared" ca="1" si="6"/>
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="OR215">
         <f t="shared" ca="1" si="6"/>
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="OS215">
         <f t="shared" ca="1" si="6"/>
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="OT215">
         <f t="shared" ca="1" si="6"/>
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="OU215">
         <f t="shared" ca="1" si="6"/>
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="OV215">
         <f t="shared" ca="1" si="6"/>
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="OW215">
         <f t="shared" ca="1" si="6"/>
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="OX215">
         <f t="shared" ca="1" si="6"/>
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="OY215">
         <f t="shared" ca="1" si="6"/>
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="OZ215">
         <f t="shared" ca="1" si="6"/>
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="PA215">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="PB215">
         <f t="shared" ca="1" si="6"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="PC215">
         <f t="shared" ca="1" si="6"/>
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="PD215">
         <f t="shared" ca="1" si="6"/>
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="PE215">
         <f t="shared" ca="1" si="6"/>
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="PF215">
         <f t="shared" ca="1" si="6"/>
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="PG215">
         <f t="shared" ca="1" si="6"/>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="PH215">
         <f t="shared" ca="1" si="6"/>
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="PI215">
         <f t="shared" ca="1" si="6"/>
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="PJ215">
         <f t="shared" ca="1" si="6"/>
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="PK215">
         <f t="shared" ca="1" si="6"/>
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="PL215">
         <f t="shared" ca="1" si="6"/>
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="PM215">
         <f t="shared" ca="1" si="6"/>
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="PN215">
         <f t="shared" ca="1" si="6"/>
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="PO215">
         <f t="shared" ca="1" si="6"/>
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="PP215">
         <f t="shared" ca="1" si="6"/>
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="PQ215">
         <f t="shared" ca="1" si="6"/>
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="PR215">
         <f t="shared" ca="1" si="6"/>
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="PS215">
         <f t="shared" ca="1" si="6"/>
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="PT215">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="PU215">
         <f t="shared" ca="1" si="6"/>
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="PV215">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="PW215">
         <f t="shared" ca="1" si="6"/>
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="PX215">
         <f t="shared" ca="1" si="6"/>
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="PY215">
         <f t="shared" ca="1" si="6"/>
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="PZ215">
         <f t="shared" ca="1" si="6"/>
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="QA215">
         <f t="shared" ca="1" si="6"/>
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="QB215">
         <f t="shared" ca="1" si="6"/>
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="QC215">
         <f t="shared" ca="1" si="6"/>
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="QD215">
         <f t="shared" ca="1" si="6"/>
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="QE215">
         <f t="shared" ca="1" si="6"/>
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="QF215">
         <f t="shared" ca="1" si="6"/>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="QG215">
         <f t="shared" ca="1" si="6"/>
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="QH215">
         <f t="shared" ref="QH215:SS215" ca="1" si="7">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="QI215">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="QJ215">
         <f t="shared" ca="1" si="7"/>
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="QK215">
         <f t="shared" ca="1" si="7"/>
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="QL215">
         <f t="shared" ca="1" si="7"/>
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="QM215">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="QN215">
         <f t="shared" ca="1" si="7"/>
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="QO215">
         <f t="shared" ca="1" si="7"/>
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="QP215">
         <f t="shared" ca="1" si="7"/>
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="QQ215">
         <f t="shared" ca="1" si="7"/>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="QR215">
         <f t="shared" ca="1" si="7"/>
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="QS215">
         <f t="shared" ca="1" si="7"/>
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="QT215">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="QU215">
         <f t="shared" ca="1" si="7"/>
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="QV215">
         <f t="shared" ca="1" si="7"/>
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="QW215">
         <f t="shared" ca="1" si="7"/>
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="QX215">
         <f t="shared" ca="1" si="7"/>
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="QY215">
         <f t="shared" ca="1" si="7"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="QZ215">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="RA215">
         <f t="shared" ca="1" si="7"/>
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="RB215">
         <f t="shared" ca="1" si="7"/>
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="RC215">
         <f t="shared" ca="1" si="7"/>
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="RD215">
         <f t="shared" ca="1" si="7"/>
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="RE215">
         <f t="shared" ca="1" si="7"/>
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="RF215">
         <f t="shared" ca="1" si="7"/>
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="RG215">
         <f t="shared" ca="1" si="7"/>
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="RH215">
         <f t="shared" ca="1" si="7"/>
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="RI215">
         <f t="shared" ca="1" si="7"/>
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="RJ215">
         <f t="shared" ca="1" si="7"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="RK215">
         <f t="shared" ca="1" si="7"/>
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="RL215">
         <f t="shared" ca="1" si="7"/>
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="RM215">
         <f t="shared" ca="1" si="7"/>
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="RN215">
         <f t="shared" ca="1" si="7"/>
@@ -5884,207 +5886,207 @@
       </c>
       <c r="RO215">
         <f t="shared" ca="1" si="7"/>
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="RP215">
         <f t="shared" ca="1" si="7"/>
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="RQ215">
         <f t="shared" ca="1" si="7"/>
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="RR215">
         <f t="shared" ca="1" si="7"/>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="RS215">
         <f t="shared" ca="1" si="7"/>
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="RT215">
         <f t="shared" ca="1" si="7"/>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="RU215">
         <f t="shared" ca="1" si="7"/>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="RV215">
         <f t="shared" ca="1" si="7"/>
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="RW215">
         <f t="shared" ca="1" si="7"/>
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="RX215">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="RY215">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="RZ215">
         <f t="shared" ca="1" si="7"/>
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="SA215">
         <f t="shared" ca="1" si="7"/>
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="SB215">
         <f t="shared" ca="1" si="7"/>
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="SC215">
         <f t="shared" ca="1" si="7"/>
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="SD215">
         <f t="shared" ca="1" si="7"/>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="SE215">
         <f t="shared" ca="1" si="7"/>
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="SF215">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="SG215">
         <f t="shared" ca="1" si="7"/>
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="SH215">
         <f t="shared" ca="1" si="7"/>
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="SI215">
         <f t="shared" ca="1" si="7"/>
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="SJ215">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="SK215">
         <f t="shared" ca="1" si="7"/>
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="SL215">
         <f t="shared" ca="1" si="7"/>
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="SM215">
         <f t="shared" ca="1" si="7"/>
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="SN215">
         <f t="shared" ca="1" si="7"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="SO215">
         <f t="shared" ca="1" si="7"/>
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="SP215">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="SQ215">
         <f t="shared" ca="1" si="7"/>
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="SR215">
         <f t="shared" ca="1" si="7"/>
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="SS215">
         <f t="shared" ca="1" si="7"/>
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="ST215">
         <f t="shared" ref="ST215:VE215" ca="1" si="8">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="SU215">
         <f t="shared" ca="1" si="8"/>
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="SV215">
         <f t="shared" ca="1" si="8"/>
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="SW215">
         <f t="shared" ca="1" si="8"/>
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="SX215">
         <f t="shared" ca="1" si="8"/>
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="SY215">
         <f t="shared" ca="1" si="8"/>
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="SZ215">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="TA215">
         <f t="shared" ca="1" si="8"/>
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="TB215">
         <f t="shared" ca="1" si="8"/>
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="TC215">
         <f t="shared" ca="1" si="8"/>
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="TD215">
         <f t="shared" ca="1" si="8"/>
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="TE215">
         <f t="shared" ca="1" si="8"/>
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="TF215">
         <f t="shared" ca="1" si="8"/>
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="TG215">
         <f t="shared" ca="1" si="8"/>
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="TH215">
         <f t="shared" ca="1" si="8"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="TI215">
         <f t="shared" ca="1" si="8"/>
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="TJ215">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="TK215">
         <f t="shared" ca="1" si="8"/>
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="TL215">
         <f t="shared" ca="1" si="8"/>
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="TM215">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="TN215">
         <f t="shared" ca="1" si="8"/>
@@ -6092,19 +6094,19 @@
       </c>
       <c r="TO215">
         <f t="shared" ca="1" si="8"/>
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="TP215">
         <f t="shared" ca="1" si="8"/>
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="TQ215">
         <f t="shared" ca="1" si="8"/>
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="TR215">
         <f t="shared" ca="1" si="8"/>
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="TS215">
         <f t="shared" ca="1" si="8"/>
@@ -6112,259 +6114,259 @@
       </c>
       <c r="TT215">
         <f t="shared" ca="1" si="8"/>
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="TU215">
         <f t="shared" ca="1" si="8"/>
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="TV215">
         <f t="shared" ca="1" si="8"/>
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="TW215">
         <f t="shared" ca="1" si="8"/>
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="TX215">
         <f t="shared" ca="1" si="8"/>
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="TY215">
         <f t="shared" ca="1" si="8"/>
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="TZ215">
         <f t="shared" ca="1" si="8"/>
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="UA215">
         <f t="shared" ca="1" si="8"/>
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="UB215">
         <f t="shared" ca="1" si="8"/>
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="UC215">
         <f t="shared" ca="1" si="8"/>
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="UD215">
         <f t="shared" ca="1" si="8"/>
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="UE215">
         <f t="shared" ca="1" si="8"/>
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="UF215">
         <f t="shared" ca="1" si="8"/>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="UG215">
         <f t="shared" ca="1" si="8"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="UH215">
         <f t="shared" ca="1" si="8"/>
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="UI215">
         <f t="shared" ca="1" si="8"/>
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="UJ215">
         <f t="shared" ca="1" si="8"/>
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="UK215">
         <f t="shared" ca="1" si="8"/>
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="UL215">
         <f t="shared" ca="1" si="8"/>
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="UM215">
         <f t="shared" ca="1" si="8"/>
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="UN215">
         <f t="shared" ca="1" si="8"/>
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="UO215">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="UP215">
         <f t="shared" ca="1" si="8"/>
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="UQ215">
         <f t="shared" ca="1" si="8"/>
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="UR215">
         <f t="shared" ca="1" si="8"/>
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="US215">
         <f t="shared" ca="1" si="8"/>
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="UT215">
         <f t="shared" ca="1" si="8"/>
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="UU215">
         <f t="shared" ca="1" si="8"/>
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="UV215">
         <f t="shared" ca="1" si="8"/>
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="UW215">
         <f t="shared" ca="1" si="8"/>
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="UX215">
         <f t="shared" ca="1" si="8"/>
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="UY215">
         <f t="shared" ca="1" si="8"/>
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="UZ215">
         <f t="shared" ca="1" si="8"/>
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="VA215">
         <f t="shared" ca="1" si="8"/>
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="VB215">
         <f t="shared" ca="1" si="8"/>
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="VC215">
         <f t="shared" ca="1" si="8"/>
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="VD215">
         <f t="shared" ca="1" si="8"/>
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="VE215">
         <f t="shared" ca="1" si="8"/>
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="VF215">
         <f t="shared" ref="VF215:XQ215" ca="1" si="9">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="VG215">
         <f t="shared" ca="1" si="9"/>
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="VH215">
         <f t="shared" ca="1" si="9"/>
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="VI215">
         <f t="shared" ca="1" si="9"/>
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="VJ215">
         <f t="shared" ca="1" si="9"/>
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="VK215">
         <f t="shared" ca="1" si="9"/>
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="VL215">
         <f t="shared" ca="1" si="9"/>
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="VM215">
         <f t="shared" ca="1" si="9"/>
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="VN215">
         <f t="shared" ca="1" si="9"/>
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="VO215">
         <f t="shared" ca="1" si="9"/>
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="VP215">
         <f t="shared" ca="1" si="9"/>
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="VQ215">
         <f t="shared" ca="1" si="9"/>
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="VR215">
         <f t="shared" ca="1" si="9"/>
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="VS215">
         <f t="shared" ca="1" si="9"/>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="VT215">
         <f t="shared" ca="1" si="9"/>
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="VU215">
         <f t="shared" ca="1" si="9"/>
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="VV215">
         <f t="shared" ca="1" si="9"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="VW215">
         <f t="shared" ca="1" si="9"/>
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="VX215">
         <f t="shared" ca="1" si="9"/>
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="VY215">
         <f t="shared" ca="1" si="9"/>
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="VZ215">
         <f t="shared" ca="1" si="9"/>
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="WA215">
         <f t="shared" ca="1" si="9"/>
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="WB215">
         <f t="shared" ca="1" si="9"/>
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="WC215">
         <f t="shared" ca="1" si="9"/>
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="WD215">
         <f t="shared" ca="1" si="9"/>
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="WE215">
         <f t="shared" ca="1" si="9"/>
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="WF215">
         <f t="shared" ca="1" si="9"/>
@@ -6372,467 +6374,467 @@
       </c>
       <c r="WG215">
         <f t="shared" ca="1" si="9"/>
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="WH215">
         <f t="shared" ca="1" si="9"/>
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="WI215">
         <f t="shared" ca="1" si="9"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="WJ215">
         <f t="shared" ca="1" si="9"/>
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="WK215">
         <f t="shared" ca="1" si="9"/>
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="WL215">
         <f t="shared" ca="1" si="9"/>
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="WM215">
         <f t="shared" ca="1" si="9"/>
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="WN215">
         <f t="shared" ca="1" si="9"/>
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="WO215">
         <f t="shared" ca="1" si="9"/>
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="WP215">
         <f t="shared" ca="1" si="9"/>
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="WQ215">
         <f t="shared" ca="1" si="9"/>
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="WR215">
         <f t="shared" ca="1" si="9"/>
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="WS215">
         <f t="shared" ca="1" si="9"/>
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="WT215">
         <f t="shared" ca="1" si="9"/>
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="WU215">
         <f t="shared" ca="1" si="9"/>
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="WV215">
         <f t="shared" ca="1" si="9"/>
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="WW215">
         <f t="shared" ca="1" si="9"/>
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="WX215">
         <f t="shared" ca="1" si="9"/>
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="WY215">
         <f t="shared" ca="1" si="9"/>
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="WZ215">
         <f t="shared" ca="1" si="9"/>
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="XA215">
         <f t="shared" ca="1" si="9"/>
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="XB215">
         <f t="shared" ca="1" si="9"/>
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="XC215">
         <f t="shared" ca="1" si="9"/>
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="XD215">
         <f t="shared" ca="1" si="9"/>
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="XE215">
         <f t="shared" ca="1" si="9"/>
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="XF215">
         <f t="shared" ca="1" si="9"/>
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="XG215">
         <f t="shared" ca="1" si="9"/>
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="XH215">
         <f t="shared" ca="1" si="9"/>
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="XI215">
         <f t="shared" ca="1" si="9"/>
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="XJ215">
         <f t="shared" ca="1" si="9"/>
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="XK215">
         <f t="shared" ca="1" si="9"/>
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="XL215">
         <f t="shared" ca="1" si="9"/>
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="XM215">
         <f t="shared" ca="1" si="9"/>
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="XN215">
         <f t="shared" ca="1" si="9"/>
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="XO215">
         <f t="shared" ca="1" si="9"/>
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="XP215">
         <f t="shared" ca="1" si="9"/>
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="XQ215">
         <f t="shared" ca="1" si="9"/>
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="XR215">
         <f t="shared" ref="XR215:AAC215" ca="1" si="10">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="XS215">
         <f t="shared" ca="1" si="10"/>
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="XT215">
         <f t="shared" ca="1" si="10"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="XU215">
         <f t="shared" ca="1" si="10"/>
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="XV215">
         <f t="shared" ca="1" si="10"/>
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="XW215">
         <f t="shared" ca="1" si="10"/>
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="XX215">
         <f t="shared" ca="1" si="10"/>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="XY215">
         <f t="shared" ca="1" si="10"/>
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="XZ215">
         <f t="shared" ca="1" si="10"/>
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="YA215">
         <f t="shared" ca="1" si="10"/>
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="YB215">
         <f t="shared" ca="1" si="10"/>
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="YC215">
         <f t="shared" ca="1" si="10"/>
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="YD215">
         <f t="shared" ca="1" si="10"/>
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="YE215">
         <f t="shared" ca="1" si="10"/>
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="YF215">
         <f t="shared" ca="1" si="10"/>
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="YG215">
         <f t="shared" ca="1" si="10"/>
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="YH215">
         <f t="shared" ca="1" si="10"/>
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="YI215">
         <f t="shared" ca="1" si="10"/>
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="YJ215">
         <f t="shared" ca="1" si="10"/>
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="YK215">
         <f t="shared" ca="1" si="10"/>
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="YL215">
         <f t="shared" ca="1" si="10"/>
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="YM215">
         <f t="shared" ca="1" si="10"/>
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="YN215">
         <f t="shared" ca="1" si="10"/>
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="YO215">
         <f t="shared" ca="1" si="10"/>
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="YP215">
         <f t="shared" ca="1" si="10"/>
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="YQ215">
         <f t="shared" ca="1" si="10"/>
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="YR215">
         <f t="shared" ca="1" si="10"/>
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="YS215">
         <f t="shared" ca="1" si="10"/>
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="YT215">
         <f t="shared" ca="1" si="10"/>
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="YU215">
         <f t="shared" ca="1" si="10"/>
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="YV215">
         <f t="shared" ca="1" si="10"/>
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="YW215">
         <f t="shared" ca="1" si="10"/>
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="YX215">
         <f t="shared" ca="1" si="10"/>
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="YY215">
         <f t="shared" ca="1" si="10"/>
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="YZ215">
         <f t="shared" ca="1" si="10"/>
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="ZA215">
         <f t="shared" ca="1" si="10"/>
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="ZB215">
         <f t="shared" ca="1" si="10"/>
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="ZC215">
         <f t="shared" ca="1" si="10"/>
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="ZD215">
         <f t="shared" ca="1" si="10"/>
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="ZE215">
         <f t="shared" ca="1" si="10"/>
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="ZF215">
         <f t="shared" ca="1" si="10"/>
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="ZG215">
         <f t="shared" ca="1" si="10"/>
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="ZH215">
         <f t="shared" ca="1" si="10"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="ZI215">
         <f t="shared" ca="1" si="10"/>
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="ZJ215">
         <f t="shared" ca="1" si="10"/>
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="ZK215">
         <f t="shared" ca="1" si="10"/>
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="ZL215">
         <f t="shared" ca="1" si="10"/>
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="ZM215">
         <f t="shared" ca="1" si="10"/>
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="ZN215">
         <f t="shared" ca="1" si="10"/>
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="ZO215">
         <f t="shared" ca="1" si="10"/>
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="ZP215">
         <f t="shared" ca="1" si="10"/>
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="ZQ215">
         <f t="shared" ca="1" si="10"/>
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="ZR215">
         <f t="shared" ca="1" si="10"/>
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="ZS215">
         <f t="shared" ca="1" si="10"/>
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="ZT215">
         <f t="shared" ca="1" si="10"/>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="ZU215">
         <f t="shared" ca="1" si="10"/>
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="ZV215">
         <f t="shared" ca="1" si="10"/>
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="ZW215">
         <f t="shared" ca="1" si="10"/>
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="ZX215">
         <f t="shared" ca="1" si="10"/>
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="ZY215">
         <f t="shared" ca="1" si="10"/>
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="ZZ215">
         <f t="shared" ca="1" si="10"/>
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="AAA215">
         <f t="shared" ca="1" si="10"/>
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="AAB215">
         <f t="shared" ca="1" si="10"/>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AAC215">
         <f t="shared" ca="1" si="10"/>
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="AAD215">
         <f t="shared" ref="AAD215:ACO215" ca="1" si="11">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AAE215">
         <f t="shared" ca="1" si="11"/>
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="AAF215">
         <f t="shared" ca="1" si="11"/>
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="AAG215">
         <f t="shared" ca="1" si="11"/>
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="AAH215">
         <f t="shared" ca="1" si="11"/>
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="AAI215">
         <f t="shared" ca="1" si="11"/>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AAJ215">
         <f t="shared" ca="1" si="11"/>
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AAK215">
         <f t="shared" ca="1" si="11"/>
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="AAL215">
         <f t="shared" ca="1" si="11"/>
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="AAM215">
         <f t="shared" ca="1" si="11"/>
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="AAN215">
         <f t="shared" ca="1" si="11"/>
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="AAO215">
         <f t="shared" ca="1" si="11"/>
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="AAP215">
         <f t="shared" ca="1" si="11"/>
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="AAQ215">
         <f t="shared" ca="1" si="11"/>
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AAR215">
         <f t="shared" ca="1" si="11"/>
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="AAS215">
         <f t="shared" ca="1" si="11"/>
@@ -6840,11 +6842,11 @@
       </c>
       <c r="AAT215">
         <f t="shared" ca="1" si="11"/>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AAU215">
         <f t="shared" ca="1" si="11"/>
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AAV215">
         <f t="shared" ca="1" si="11"/>
@@ -6852,303 +6854,303 @@
       </c>
       <c r="AAW215">
         <f t="shared" ca="1" si="11"/>
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AAX215">
         <f t="shared" ca="1" si="11"/>
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AAY215">
         <f t="shared" ca="1" si="11"/>
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="AAZ215">
         <f t="shared" ca="1" si="11"/>
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="ABA215">
         <f t="shared" ca="1" si="11"/>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="ABB215">
         <f t="shared" ca="1" si="11"/>
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="ABC215">
         <f t="shared" ca="1" si="11"/>
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="ABD215">
         <f t="shared" ca="1" si="11"/>
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="ABE215">
         <f t="shared" ca="1" si="11"/>
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="ABF215">
         <f t="shared" ca="1" si="11"/>
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="ABG215">
         <f t="shared" ca="1" si="11"/>
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="ABH215">
         <f t="shared" ca="1" si="11"/>
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="ABI215">
         <f t="shared" ca="1" si="11"/>
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="ABJ215">
         <f t="shared" ca="1" si="11"/>
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="ABK215">
         <f t="shared" ca="1" si="11"/>
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="ABL215">
         <f t="shared" ca="1" si="11"/>
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="ABM215">
         <f t="shared" ca="1" si="11"/>
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="ABN215">
         <f t="shared" ca="1" si="11"/>
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="ABO215">
         <f t="shared" ca="1" si="11"/>
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="ABP215">
         <f t="shared" ca="1" si="11"/>
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="ABQ215">
         <f t="shared" ca="1" si="11"/>
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="ABR215">
         <f t="shared" ca="1" si="11"/>
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="ABS215">
         <f t="shared" ca="1" si="11"/>
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="ABT215">
         <f t="shared" ca="1" si="11"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="ABU215">
         <f t="shared" ca="1" si="11"/>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="ABV215">
         <f t="shared" ca="1" si="11"/>
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="ABW215">
         <f t="shared" ca="1" si="11"/>
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="ABX215">
         <f t="shared" ca="1" si="11"/>
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="ABY215">
         <f t="shared" ca="1" si="11"/>
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="ABZ215">
         <f t="shared" ca="1" si="11"/>
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="ACA215">
         <f t="shared" ca="1" si="11"/>
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="ACB215">
         <f t="shared" ca="1" si="11"/>
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="ACC215">
         <f t="shared" ca="1" si="11"/>
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="ACD215">
         <f t="shared" ca="1" si="11"/>
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="ACE215">
         <f t="shared" ca="1" si="11"/>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="ACF215">
         <f t="shared" ca="1" si="11"/>
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="ACG215">
         <f t="shared" ca="1" si="11"/>
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="ACH215">
         <f t="shared" ca="1" si="11"/>
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="ACI215">
         <f t="shared" ca="1" si="11"/>
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="ACJ215">
         <f t="shared" ca="1" si="11"/>
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="ACK215">
         <f t="shared" ca="1" si="11"/>
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="ACL215">
         <f t="shared" ca="1" si="11"/>
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="ACM215">
         <f t="shared" ca="1" si="11"/>
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="ACN215">
         <f t="shared" ca="1" si="11"/>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="ACO215">
         <f t="shared" ca="1" si="11"/>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="ACP215">
         <f t="shared" ref="ACP215:AFA215" ca="1" si="12">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="ACQ215">
         <f t="shared" ca="1" si="12"/>
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="ACR215">
         <f t="shared" ca="1" si="12"/>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="ACS215">
         <f t="shared" ca="1" si="12"/>
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="ACT215">
         <f t="shared" ca="1" si="12"/>
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="ACU215">
         <f t="shared" ca="1" si="12"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="ACV215">
         <f t="shared" ca="1" si="12"/>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="ACW215">
         <f t="shared" ca="1" si="12"/>
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="ACX215">
         <f t="shared" ca="1" si="12"/>
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="ACY215">
         <f t="shared" ca="1" si="12"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="ACZ215">
         <f t="shared" ca="1" si="12"/>
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="ADA215">
         <f t="shared" ca="1" si="12"/>
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="ADB215">
         <f t="shared" ca="1" si="12"/>
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="ADC215">
         <f t="shared" ca="1" si="12"/>
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="ADD215">
         <f t="shared" ca="1" si="12"/>
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="ADE215">
         <f t="shared" ca="1" si="12"/>
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="ADF215">
         <f t="shared" ca="1" si="12"/>
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="ADG215">
         <f t="shared" ca="1" si="12"/>
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="ADH215">
         <f t="shared" ca="1" si="12"/>
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="ADI215">
         <f t="shared" ca="1" si="12"/>
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="ADJ215">
         <f t="shared" ca="1" si="12"/>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="ADK215">
         <f t="shared" ca="1" si="12"/>
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="ADL215">
         <f t="shared" ca="1" si="12"/>
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="ADM215">
         <f t="shared" ca="1" si="12"/>
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="ADN215">
         <f t="shared" ca="1" si="12"/>
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="ADO215">
         <f t="shared" ca="1" si="12"/>
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="ADP215">
         <f t="shared" ca="1" si="12"/>
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="ADQ215">
         <f t="shared" ca="1" si="12"/>
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="ADR215">
         <f t="shared" ca="1" si="12"/>
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="ADS215">
         <f t="shared" ca="1" si="12"/>
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="ADT215">
         <f t="shared" ca="1" si="12"/>
@@ -7156,91 +7158,91 @@
       </c>
       <c r="ADU215">
         <f t="shared" ca="1" si="12"/>
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="ADV215">
         <f t="shared" ca="1" si="12"/>
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="ADW215">
         <f t="shared" ca="1" si="12"/>
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="ADX215">
         <f t="shared" ca="1" si="12"/>
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="ADY215">
         <f t="shared" ca="1" si="12"/>
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="ADZ215">
         <f t="shared" ca="1" si="12"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AEA215">
         <f t="shared" ca="1" si="12"/>
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="AEB215">
         <f t="shared" ca="1" si="12"/>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AEC215">
         <f t="shared" ca="1" si="12"/>
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="AED215">
         <f t="shared" ca="1" si="12"/>
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="AEE215">
         <f t="shared" ca="1" si="12"/>
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="AEF215">
         <f t="shared" ca="1" si="12"/>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="AEG215">
         <f t="shared" ca="1" si="12"/>
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="AEH215">
         <f t="shared" ca="1" si="12"/>
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AEI215">
         <f t="shared" ca="1" si="12"/>
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="AEJ215">
         <f t="shared" ca="1" si="12"/>
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="AEK215">
         <f t="shared" ca="1" si="12"/>
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="AEL215">
         <f t="shared" ca="1" si="12"/>
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="AEM215">
         <f t="shared" ca="1" si="12"/>
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="AEN215">
         <f t="shared" ca="1" si="12"/>
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AEO215">
         <f t="shared" ca="1" si="12"/>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AEP215">
         <f t="shared" ca="1" si="12"/>
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="AEQ215">
         <f t="shared" ca="1" si="12"/>
@@ -7248,95 +7250,95 @@
       </c>
       <c r="AER215">
         <f t="shared" ca="1" si="12"/>
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="AES215">
         <f t="shared" ca="1" si="12"/>
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AET215">
         <f t="shared" ca="1" si="12"/>
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="AEU215">
         <f t="shared" ca="1" si="12"/>
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="AEV215">
         <f t="shared" ca="1" si="12"/>
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AEW215">
         <f t="shared" ca="1" si="12"/>
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="AEX215">
         <f t="shared" ca="1" si="12"/>
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="AEY215">
         <f t="shared" ca="1" si="12"/>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AEZ215">
         <f t="shared" ca="1" si="12"/>
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="AFA215">
         <f t="shared" ca="1" si="12"/>
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AFB215">
         <f t="shared" ref="AFB215:AHM215" ca="1" si="13">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AFC215">
         <f t="shared" ca="1" si="13"/>
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="AFD215">
         <f t="shared" ca="1" si="13"/>
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="AFE215">
         <f t="shared" ca="1" si="13"/>
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="AFF215">
         <f t="shared" ca="1" si="13"/>
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="AFG215">
         <f t="shared" ca="1" si="13"/>
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="AFH215">
         <f t="shared" ca="1" si="13"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AFI215">
         <f t="shared" ca="1" si="13"/>
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="AFJ215">
         <f t="shared" ca="1" si="13"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AFK215">
         <f t="shared" ca="1" si="13"/>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AFL215">
         <f t="shared" ca="1" si="13"/>
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="AFM215">
         <f t="shared" ca="1" si="13"/>
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="AFN215">
         <f t="shared" ca="1" si="13"/>
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AFO215">
         <f t="shared" ca="1" si="13"/>
@@ -7344,51 +7346,51 @@
       </c>
       <c r="AFP215">
         <f t="shared" ca="1" si="13"/>
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AFQ215">
         <f t="shared" ca="1" si="13"/>
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AFR215">
         <f t="shared" ca="1" si="13"/>
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="AFS215">
         <f t="shared" ca="1" si="13"/>
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="AFT215">
         <f t="shared" ca="1" si="13"/>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="AFU215">
         <f t="shared" ca="1" si="13"/>
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="AFV215">
         <f t="shared" ca="1" si="13"/>
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="AFW215">
         <f t="shared" ca="1" si="13"/>
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AFX215">
         <f t="shared" ca="1" si="13"/>
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="AFY215">
         <f t="shared" ca="1" si="13"/>
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="AFZ215">
         <f t="shared" ca="1" si="13"/>
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="AGA215">
         <f t="shared" ca="1" si="13"/>
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="AGB215">
         <f t="shared" ca="1" si="13"/>
@@ -7396,578 +7398,578 @@
       </c>
       <c r="AGC215">
         <f t="shared" ca="1" si="13"/>
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="AGD215">
         <f t="shared" ca="1" si="13"/>
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="AGE215">
         <f t="shared" ca="1" si="13"/>
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="AGF215">
         <f t="shared" ca="1" si="13"/>
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="AGG215">
         <f t="shared" ca="1" si="13"/>
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AGH215">
         <f t="shared" ca="1" si="13"/>
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="AGI215">
         <f t="shared" ca="1" si="13"/>
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="AGJ215">
         <f t="shared" ca="1" si="13"/>
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="AGK215">
         <f t="shared" ca="1" si="13"/>
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="AGL215">
         <f t="shared" ca="1" si="13"/>
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="AGM215">
         <f t="shared" ca="1" si="13"/>
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="AGN215">
         <f t="shared" ca="1" si="13"/>
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AGO215">
         <f t="shared" ca="1" si="13"/>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AGP215">
         <f t="shared" ca="1" si="13"/>
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="AGQ215">
         <f t="shared" ca="1" si="13"/>
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="AGR215">
         <f t="shared" ca="1" si="13"/>
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="AGS215">
         <f t="shared" ca="1" si="13"/>
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="AGT215">
         <f t="shared" ca="1" si="13"/>
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AGU215">
         <f t="shared" ca="1" si="13"/>
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="AGV215">
         <f t="shared" ca="1" si="13"/>
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="AGW215">
         <f t="shared" ca="1" si="13"/>
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="AGX215">
         <f t="shared" ca="1" si="13"/>
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AGY215">
         <f t="shared" ca="1" si="13"/>
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="AGZ215">
         <f t="shared" ca="1" si="13"/>
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AHA215">
         <f t="shared" ca="1" si="13"/>
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="AHB215">
         <f t="shared" ca="1" si="13"/>
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="AHC215">
         <f t="shared" ca="1" si="13"/>
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="AHD215">
         <f t="shared" ca="1" si="13"/>
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="AHE215">
         <f t="shared" ca="1" si="13"/>
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="AHF215">
         <f t="shared" ca="1" si="13"/>
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AHG215">
         <f t="shared" ca="1" si="13"/>
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="AHH215">
         <f t="shared" ca="1" si="13"/>
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="AHI215">
         <f t="shared" ca="1" si="13"/>
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="AHJ215">
         <f t="shared" ca="1" si="13"/>
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="AHK215">
         <f t="shared" ca="1" si="13"/>
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AHL215">
         <f t="shared" ca="1" si="13"/>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AHM215">
         <f t="shared" ca="1" si="13"/>
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="AHN215">
         <f t="shared" ref="AHN215:AJY215" ca="1" si="14">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="AHO215">
         <f t="shared" ca="1" si="14"/>
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="AHP215">
         <f t="shared" ca="1" si="14"/>
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="AHQ215">
         <f t="shared" ca="1" si="14"/>
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="AHR215">
         <f t="shared" ca="1" si="14"/>
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="AHS215">
         <f t="shared" ca="1" si="14"/>
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="AHT215">
         <f t="shared" ca="1" si="14"/>
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="AHU215">
         <f t="shared" ca="1" si="14"/>
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="AHV215">
         <f t="shared" ca="1" si="14"/>
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="AHW215">
         <f t="shared" ca="1" si="14"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AHX215">
         <f t="shared" ca="1" si="14"/>
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="AHY215">
         <f t="shared" ca="1" si="14"/>
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="AHZ215">
         <f t="shared" ca="1" si="14"/>
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="AIA215">
         <f t="shared" ca="1" si="14"/>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AIB215">
         <f t="shared" ca="1" si="14"/>
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="AIC215">
         <f t="shared" ca="1" si="14"/>
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="AID215">
         <f t="shared" ca="1" si="14"/>
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="AIE215">
         <f t="shared" ca="1" si="14"/>
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="AIF215">
         <f t="shared" ca="1" si="14"/>
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="AIG215">
         <f t="shared" ca="1" si="14"/>
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AIH215">
         <f t="shared" ca="1" si="14"/>
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="AII215">
         <f t="shared" ca="1" si="14"/>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AIJ215">
         <f t="shared" ca="1" si="14"/>
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="AIK215">
         <f t="shared" ca="1" si="14"/>
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="AIL215">
         <f t="shared" ca="1" si="14"/>
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AIM215">
         <f t="shared" ca="1" si="14"/>
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AIN215">
         <f t="shared" ca="1" si="14"/>
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="AIO215">
         <f t="shared" ca="1" si="14"/>
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="AIP215">
         <f t="shared" ca="1" si="14"/>
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="AIQ215">
         <f t="shared" ca="1" si="14"/>
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="AIR215">
         <f t="shared" ca="1" si="14"/>
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AIS215">
         <f t="shared" ca="1" si="14"/>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AIT215">
         <f t="shared" ca="1" si="14"/>
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="AIU215">
         <f t="shared" ca="1" si="14"/>
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="AIV215">
         <f t="shared" ca="1" si="14"/>
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="AIW215">
         <f t="shared" ca="1" si="14"/>
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="AIX215">
         <f t="shared" ca="1" si="14"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AIY215">
         <f t="shared" ca="1" si="14"/>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AIZ215">
         <f t="shared" ca="1" si="14"/>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="AJA215">
         <f t="shared" ca="1" si="14"/>
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="AJB215">
         <f t="shared" ca="1" si="14"/>
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="AJC215">
         <f t="shared" ca="1" si="14"/>
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="AJD215">
         <f t="shared" ca="1" si="14"/>
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="AJE215">
         <f t="shared" ca="1" si="14"/>
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AJF215">
         <f t="shared" ca="1" si="14"/>
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AJG215">
         <f t="shared" ca="1" si="14"/>
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="AJH215">
         <f t="shared" ca="1" si="14"/>
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="AJI215">
         <f t="shared" ca="1" si="14"/>
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="AJJ215">
         <f t="shared" ca="1" si="14"/>
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AJK215">
         <f t="shared" ca="1" si="14"/>
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AJL215">
         <f t="shared" ca="1" si="14"/>
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="AJM215">
         <f t="shared" ca="1" si="14"/>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="AJN215">
         <f t="shared" ca="1" si="14"/>
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="AJO215">
         <f t="shared" ca="1" si="14"/>
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="AJP215">
         <f t="shared" ca="1" si="14"/>
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="AJQ215">
         <f t="shared" ca="1" si="14"/>
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="AJR215">
         <f t="shared" ca="1" si="14"/>
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="AJS215">
         <f t="shared" ca="1" si="14"/>
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AJT215">
         <f t="shared" ca="1" si="14"/>
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="AJU215">
         <f t="shared" ca="1" si="14"/>
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="AJV215">
         <f t="shared" ca="1" si="14"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AJW215">
         <f t="shared" ca="1" si="14"/>
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AJX215">
         <f t="shared" ca="1" si="14"/>
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="AJY215">
         <f t="shared" ca="1" si="14"/>
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="AJZ215">
         <f t="shared" ref="AJZ215:ALL215" ca="1" si="15">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="AKA215">
         <f t="shared" ca="1" si="15"/>
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AKB215">
         <f t="shared" ca="1" si="15"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AKC215">
         <f t="shared" ca="1" si="15"/>
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="AKD215">
         <f t="shared" ca="1" si="15"/>
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="AKE215">
         <f t="shared" ca="1" si="15"/>
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="AKF215">
         <f t="shared" ca="1" si="15"/>
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="AKG215">
         <f t="shared" ca="1" si="15"/>
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="AKH215">
         <f t="shared" ca="1" si="15"/>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AKI215">
         <f t="shared" ca="1" si="15"/>
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="AKJ215">
         <f t="shared" ca="1" si="15"/>
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="AKK215">
         <f t="shared" ca="1" si="15"/>
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="AKL215">
         <f t="shared" ca="1" si="15"/>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AKM215">
         <f t="shared" ca="1" si="15"/>
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="AKN215">
         <f t="shared" ca="1" si="15"/>
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="AKO215">
         <f t="shared" ca="1" si="15"/>
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="AKP215">
         <f t="shared" ca="1" si="15"/>
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="AKQ215">
         <f t="shared" ca="1" si="15"/>
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="AKR215">
         <f t="shared" ca="1" si="15"/>
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="AKS215">
         <f t="shared" ca="1" si="15"/>
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="AKT215">
         <f t="shared" ca="1" si="15"/>
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AKU215">
         <f t="shared" ca="1" si="15"/>
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="AKV215">
         <f t="shared" ca="1" si="15"/>
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="AKW215">
         <f t="shared" ca="1" si="15"/>
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="AKX215">
         <f t="shared" ca="1" si="15"/>
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AKY215">
         <f t="shared" ca="1" si="15"/>
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="AKZ215">
         <f t="shared" ca="1" si="15"/>
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="ALA215">
         <f t="shared" ca="1" si="15"/>
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="ALB215">
         <f t="shared" ca="1" si="15"/>
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="ALC215">
         <f t="shared" ca="1" si="15"/>
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="ALD215">
         <f t="shared" ca="1" si="15"/>
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="ALE215">
         <f t="shared" ca="1" si="15"/>
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="ALF215">
         <f t="shared" ca="1" si="15"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="ALG215">
         <f t="shared" ca="1" si="15"/>
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="ALH215">
         <f t="shared" ca="1" si="15"/>
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="ALI215">
         <f t="shared" ca="1" si="15"/>
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="ALJ215">
         <f t="shared" ca="1" si="15"/>
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="ALK215">
         <f t="shared" ca="1" si="15"/>
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="ALL215">
         <f t="shared" ca="1" si="15"/>
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="216" spans="1:16384">
       <c r="A216" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="217" spans="1:16384">
       <c r="A217" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="218" spans="1:16384">
       <c r="A218" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="219" spans="1:16384">
@@ -24358,50 +24360,50 @@
     </row>
     <row r="221" spans="1:16384">
       <c r="A221" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="222" spans="1:16384">
       <c r="A222" s="6"/>
       <c r="B222" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="223" spans="1:16384">
       <c r="A223" s="6"/>
       <c r="B223" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="224" spans="1:16384">
       <c r="A224" s="6"/>
       <c r="B224" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="226" spans="1:6">
       <c r="A226" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="228" spans="1:6">
       <c r="A228" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B228" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C228" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D228" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E228" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F228" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -24526,7 +24528,7 @@
     </row>
     <row r="239" spans="1:6">
       <c r="B239" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D239" s="6"/>
       <c r="E239" s="6"/>
@@ -24534,13 +24536,13 @@
     </row>
     <row r="240" spans="1:6">
       <c r="D240" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="241" spans="5:6">
@@ -24549,10 +24551,10 @@
     </row>
     <row r="242" spans="5:6">
       <c r="E242" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="243" spans="5:6">
@@ -24560,7 +24562,7 @@
     </row>
     <row r="244" spans="5:6">
       <c r="F244" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/excel/07.xlsx
+++ b/excel/07.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yabuki\Dropbox\it-chiba\データ解析入門\analysis\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADF0B04-7114-499E-AC6D-72F042E13699}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E77CAF5-136B-411C-B51F-F573D31D27ED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="340" windowWidth="20900" windowHeight="18340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="340" yWindow="340" windowWidth="17630" windowHeight="17950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -937,19 +937,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>←③偏差の2乗「=A105^2」を求めます．</t>
-    <rPh sb="2" eb="4">
-      <t>ヘンサ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>モト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>←④C105をコピペ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2221,6 +2208,19 @@
   </si>
   <si>
     <t>←③B85をコピペ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←③偏差の2乗「=B105^2」を求めます．</t>
+    <rPh sb="2" eb="4">
+      <t>ヘンサ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>モト</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2596,8 +2596,8 @@
   </sheetPr>
   <dimension ref="A1:XFD244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2613,7 +2613,7 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G1">
         <f>F243</f>
@@ -3100,7 +3100,7 @@
       </c>
       <c r="B85" s="6"/>
       <c r="C85" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -3109,7 +3109,7 @@
       </c>
       <c r="B86" s="6"/>
       <c r="C86" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -3118,7 +3118,7 @@
       </c>
       <c r="B87" s="6"/>
       <c r="C87" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="B88" s="6"/>
       <c r="C88" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -3136,7 +3136,7 @@
       </c>
       <c r="B89" s="6"/>
       <c r="C89" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -3214,7 +3214,7 @@
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
       <c r="D105" s="1" t="s">
-        <v>84</v>
+        <v>167</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3224,7 +3224,7 @@
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
       <c r="D106" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3234,7 +3234,7 @@
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
       <c r="D107" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3244,7 +3244,7 @@
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
       <c r="D108" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3254,7 +3254,7 @@
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
       <c r="D109" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3262,7 +3262,7 @@
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
       <c r="D110" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3274,47 +3274,47 @@
       </c>
       <c r="C111" s="6"/>
       <c r="D111" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -3366,7 +3366,7 @@
     <row r="129" spans="1:4">
       <c r="C129" s="6"/>
       <c r="D129" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3374,22 +3374,22 @@
       <c r="B130" s="1"/>
       <c r="C130" s="6"/>
       <c r="D130" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3444,28 +3444,28 @@
       <c r="A143" s="6"/>
       <c r="B143" s="6"/>
       <c r="C143" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="6"/>
       <c r="B144" s="6"/>
       <c r="C144" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="6"/>
       <c r="B145" s="6"/>
       <c r="C145" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="6"/>
       <c r="B146" s="6"/>
       <c r="C146" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -3483,17 +3483,17 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3548,57 +3548,57 @@
       <c r="A161" s="6"/>
       <c r="B161" s="6"/>
       <c r="C161" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="162" spans="1:10">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
       <c r="C162" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="163" spans="1:10">
       <c r="A163" s="6"/>
       <c r="B163" s="6"/>
       <c r="C163" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="164" spans="1:10">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="C164" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="165" spans="1:10">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="C165" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="166" spans="1:10">
       <c r="A166" s="6"/>
       <c r="B166" s="6"/>
       <c r="C166" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="169" spans="1:10">
       <c r="A169" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="170" spans="1:10">
       <c r="A170" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="171" spans="1:10">
       <c r="A171" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="172" spans="1:10">
@@ -3636,50 +3636,50 @@
     <row r="173" spans="1:10">
       <c r="A173" s="6"/>
       <c r="B173" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="174" spans="1:10">
       <c r="A174" s="6"/>
       <c r="B174" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="175" spans="1:10">
       <c r="A175" s="6"/>
       <c r="B175" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="178" spans="1:8">
       <c r="A178" t="s">
+        <v>113</v>
+      </c>
+      <c r="B178" t="s">
+        <v>109</v>
+      </c>
+      <c r="C178" t="s">
         <v>114</v>
       </c>
-      <c r="B178" t="s">
-        <v>110</v>
-      </c>
-      <c r="C178" t="s">
-        <v>115</v>
-      </c>
       <c r="D178" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F178" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G178" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G178" s="2" t="s">
+      <c r="H178" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="H178" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -3824,7 +3824,7 @@
     </row>
     <row r="189" spans="1:8">
       <c r="B189" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D189" s="6"/>
       <c r="E189" s="6"/>
@@ -3832,13 +3832,13 @@
     </row>
     <row r="190" spans="1:8">
       <c r="D190" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -3854,15 +3854,15 @@
         <v>9</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="193" spans="1:8">
       <c r="E193" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G193" s="3" t="s">
         <v>14</v>
@@ -3871,150 +3871,150 @@
     </row>
     <row r="194" spans="1:8">
       <c r="H194" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="196" spans="1:8">
       <c r="A196" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="197" spans="1:8">
       <c r="A197" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="198" spans="1:8">
       <c r="A198" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="199" spans="1:8">
       <c r="A199" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="200" spans="1:8">
       <c r="A200" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="201" spans="1:8">
       <c r="A201" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="202" spans="1:8">
       <c r="A202" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="203" spans="1:8">
       <c r="A203" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="204" spans="1:8">
       <c r="A204" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="206" spans="1:8">
       <c r="A206" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="207" spans="1:8">
       <c r="A207" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="6"/>
       <c r="B208" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="209" spans="1:16384">
       <c r="A209" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="210" spans="1:16384">
       <c r="A210" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="213" spans="1:16384">
       <c r="A213" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="214" spans="1:16384">
       <c r="A214" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="215" spans="1:16384">
       <c r="A215">
         <f ca="1">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="B215">
         <f t="shared" ref="B215:BM215" ca="1" si="0">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C215">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D215">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="E215">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F215">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="G215">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="H215">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="I215">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="J215">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="K215">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="L215">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="M215">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="N215">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O215">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="P215">
         <f t="shared" ca="1" si="0"/>
@@ -4022,243 +4022,243 @@
       </c>
       <c r="Q215">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="R215">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="S215">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="T215">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="U215">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V215">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="W215">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="X215">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="Y215">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="Z215">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="AA215">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="AB215">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="AC215">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="AD215">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="AE215">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="AF215">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AG215">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="AH215">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="AI215">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AJ215">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="AK215">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AL215">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="AM215">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="AN215">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="AO215">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="AP215">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="AQ215">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="AR215">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="AS215">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="AT215">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="AU215">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="AV215">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="AW215">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="AX215">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="AY215">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="AZ215">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="BA215">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="BB215">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="BC215">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="BD215">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="BE215">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="BF215">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="BG215">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="BH215">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="BI215">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="BJ215">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="BK215">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="BL215">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="BM215">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="BN215">
         <f t="shared" ref="BN215:DY215" ca="1" si="1">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="BO215">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="BP215">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="BQ215">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="BR215">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="BS215">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="BT215">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="BU215">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="BV215">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="BW215">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="BX215">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="BY215">
         <f t="shared" ca="1" si="1"/>
@@ -4266,283 +4266,283 @@
       </c>
       <c r="BZ215">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="CA215">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="CB215">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="CC215">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="CD215">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="CE215">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="CF215">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="CG215">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="CH215">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="CI215">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="CJ215">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="CK215">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="CL215">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="CM215">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="CN215">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="CO215">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="CP215">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="CQ215">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="CR215">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="CS215">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="CT215">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="CU215">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="CV215">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="CW215">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="CX215">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="CY215">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="CZ215">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DA215">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="DB215">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="DC215">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="DD215">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="DE215">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="DF215">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="DG215">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="DH215">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="DI215">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="DJ215">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="DK215">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="DL215">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="DM215">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="DN215">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="DO215">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="DP215">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="DQ215">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="DR215">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="DS215">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="DT215">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="DU215">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="DV215">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="DW215">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="DX215">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="DY215">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="DZ215">
         <f t="shared" ref="DZ215:GK215" ca="1" si="2">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="EA215">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="EB215">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="EC215">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="ED215">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="EE215">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="EF215">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="EG215">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="EH215">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="EI215">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="EJ215">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="EK215">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="EL215">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="EM215">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="EN215">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="EO215">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="EP215">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="EQ215">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="ER215">
         <f t="shared" ca="1" si="2"/>
@@ -4550,143 +4550,143 @@
       </c>
       <c r="ES215">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="ET215">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="EU215">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="EV215">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="EW215">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="EX215">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="EY215">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="EZ215">
         <f t="shared" ca="1" si="2"/>
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="FA215">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="FB215">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="FC215">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="FD215">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="FE215">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="FF215">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="FG215">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="FH215">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="FI215">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="FJ215">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="FK215">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="FL215">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="FM215">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="FN215">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="FO215">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="FP215">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="FQ215">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="FR215">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="FS215">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="FT215">
         <f t="shared" ca="1" si="2"/>
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="FU215">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="FV215">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="FW215">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="FX215">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="FY215">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="FZ215">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="GA215">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="GB215">
         <f t="shared" ca="1" si="2"/>
@@ -4710,71 +4710,71 @@
       </c>
       <c r="GG215">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="GH215">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="GI215">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="GJ215">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="GK215">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="GL215">
         <f t="shared" ref="GL215:IW215" ca="1" si="3">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="GM215">
         <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="GN215">
         <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="GO215">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="GP215">
         <f t="shared" ca="1" si="3"/>
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="GQ215">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="GR215">
         <f t="shared" ca="1" si="3"/>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="GS215">
         <f t="shared" ca="1" si="3"/>
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="GT215">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="GU215">
         <f t="shared" ca="1" si="3"/>
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="GV215">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="GW215">
         <f t="shared" ca="1" si="3"/>
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="GX215">
         <f t="shared" ca="1" si="3"/>
@@ -4782,403 +4782,403 @@
       </c>
       <c r="GY215">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="GZ215">
         <f t="shared" ca="1" si="3"/>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="HA215">
         <f t="shared" ca="1" si="3"/>
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="HB215">
         <f t="shared" ca="1" si="3"/>
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="HC215">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="HD215">
         <f t="shared" ca="1" si="3"/>
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="HE215">
         <f t="shared" ca="1" si="3"/>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="HF215">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="HG215">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="HH215">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="HI215">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="HJ215">
         <f t="shared" ca="1" si="3"/>
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="HK215">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="HL215">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="HM215">
         <f t="shared" ca="1" si="3"/>
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="HN215">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="HO215">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="HP215">
         <f t="shared" ca="1" si="3"/>
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="HQ215">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="HR215">
         <f t="shared" ca="1" si="3"/>
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="HS215">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="HT215">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="HU215">
         <f t="shared" ca="1" si="3"/>
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="HV215">
         <f t="shared" ca="1" si="3"/>
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="HW215">
         <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="HX215">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="HY215">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="HZ215">
         <f t="shared" ca="1" si="3"/>
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="IA215">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="IB215">
         <f t="shared" ca="1" si="3"/>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="IC215">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="ID215">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="IE215">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="IF215">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="IG215">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="IH215">
         <f t="shared" ca="1" si="3"/>
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="II215">
         <f t="shared" ca="1" si="3"/>
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="IJ215">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="IK215">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="IL215">
         <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="IM215">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="IN215">
         <f t="shared" ca="1" si="3"/>
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="IO215">
         <f t="shared" ca="1" si="3"/>
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="IP215">
         <f t="shared" ca="1" si="3"/>
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="IQ215">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="IR215">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="IS215">
         <f t="shared" ca="1" si="3"/>
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="IT215">
         <f t="shared" ca="1" si="3"/>
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="IU215">
         <f t="shared" ca="1" si="3"/>
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="IV215">
         <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="IW215">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="IX215">
         <f t="shared" ref="IX215:LI215" ca="1" si="4">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="IY215">
         <f t="shared" ca="1" si="4"/>
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="IZ215">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="JA215">
         <f t="shared" ca="1" si="4"/>
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="JB215">
         <f t="shared" ca="1" si="4"/>
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="JC215">
         <f t="shared" ca="1" si="4"/>
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="JD215">
         <f t="shared" ca="1" si="4"/>
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="JE215">
         <f t="shared" ca="1" si="4"/>
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="JF215">
         <f t="shared" ca="1" si="4"/>
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="JG215">
         <f t="shared" ca="1" si="4"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="JH215">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="JI215">
         <f t="shared" ca="1" si="4"/>
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="JJ215">
         <f t="shared" ca="1" si="4"/>
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="JK215">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="JL215">
         <f t="shared" ca="1" si="4"/>
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="JM215">
         <f t="shared" ca="1" si="4"/>
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="JN215">
         <f t="shared" ca="1" si="4"/>
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="JO215">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="JP215">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="JQ215">
         <f t="shared" ca="1" si="4"/>
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="JR215">
         <f t="shared" ca="1" si="4"/>
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="JS215">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="JT215">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="JU215">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="JV215">
         <f t="shared" ca="1" si="4"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="JW215">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="JX215">
         <f t="shared" ca="1" si="4"/>
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="JY215">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="JZ215">
         <f t="shared" ca="1" si="4"/>
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="KA215">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="KB215">
         <f t="shared" ca="1" si="4"/>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="KC215">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="KD215">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="KE215">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="KF215">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="KG215">
         <f t="shared" ca="1" si="4"/>
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="KH215">
         <f t="shared" ca="1" si="4"/>
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="KI215">
         <f t="shared" ca="1" si="4"/>
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="KJ215">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="KK215">
         <f t="shared" ca="1" si="4"/>
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="KL215">
         <f t="shared" ca="1" si="4"/>
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="KM215">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="KN215">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="KO215">
         <f t="shared" ca="1" si="4"/>
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="KP215">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="KQ215">
         <f t="shared" ca="1" si="4"/>
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="KR215">
         <f t="shared" ca="1" si="4"/>
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="KS215">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="KT215">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="KU215">
         <f t="shared" ca="1" si="4"/>
@@ -5186,299 +5186,299 @@
       </c>
       <c r="KV215">
         <f t="shared" ca="1" si="4"/>
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="KW215">
         <f t="shared" ca="1" si="4"/>
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="KX215">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="KY215">
         <f t="shared" ca="1" si="4"/>
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="KZ215">
         <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="LA215">
         <f t="shared" ca="1" si="4"/>
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="LB215">
         <f t="shared" ca="1" si="4"/>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="LC215">
         <f t="shared" ca="1" si="4"/>
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="LD215">
         <f t="shared" ca="1" si="4"/>
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="LE215">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="LF215">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="LG215">
         <f t="shared" ca="1" si="4"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="LH215">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="LI215">
         <f t="shared" ca="1" si="4"/>
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="LJ215">
         <f t="shared" ref="LJ215:NU215" ca="1" si="5">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="LK215">
         <f t="shared" ca="1" si="5"/>
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="LL215">
         <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="LM215">
         <f t="shared" ca="1" si="5"/>
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="LN215">
         <f t="shared" ca="1" si="5"/>
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="LO215">
         <f t="shared" ca="1" si="5"/>
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="LP215">
         <f t="shared" ca="1" si="5"/>
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="LQ215">
         <f t="shared" ca="1" si="5"/>
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="LR215">
         <f t="shared" ca="1" si="5"/>
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="LS215">
         <f t="shared" ca="1" si="5"/>
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="LT215">
         <f t="shared" ca="1" si="5"/>
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="LU215">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="LV215">
         <f t="shared" ca="1" si="5"/>
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="LW215">
         <f t="shared" ca="1" si="5"/>
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="LX215">
         <f t="shared" ca="1" si="5"/>
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="LY215">
         <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="LZ215">
         <f t="shared" ca="1" si="5"/>
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="MA215">
         <f t="shared" ca="1" si="5"/>
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="MB215">
         <f t="shared" ca="1" si="5"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="MC215">
         <f t="shared" ca="1" si="5"/>
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="MD215">
         <f t="shared" ca="1" si="5"/>
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="ME215">
         <f t="shared" ca="1" si="5"/>
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="MF215">
         <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="MG215">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="MH215">
         <f t="shared" ca="1" si="5"/>
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="MI215">
         <f t="shared" ca="1" si="5"/>
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="MJ215">
         <f t="shared" ca="1" si="5"/>
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="MK215">
         <f t="shared" ca="1" si="5"/>
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="ML215">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="MM215">
         <f t="shared" ca="1" si="5"/>
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="MN215">
         <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="MO215">
         <f t="shared" ca="1" si="5"/>
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="MP215">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="MQ215">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="MR215">
         <f t="shared" ca="1" si="5"/>
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="MS215">
         <f t="shared" ca="1" si="5"/>
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="MT215">
         <f t="shared" ca="1" si="5"/>
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="MU215">
         <f t="shared" ca="1" si="5"/>
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="MV215">
         <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="MW215">
         <f t="shared" ca="1" si="5"/>
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="MX215">
         <f t="shared" ca="1" si="5"/>
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="MY215">
         <f t="shared" ca="1" si="5"/>
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="MZ215">
         <f t="shared" ca="1" si="5"/>
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="NA215">
         <f t="shared" ca="1" si="5"/>
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="NB215">
         <f t="shared" ca="1" si="5"/>
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="NC215">
         <f t="shared" ca="1" si="5"/>
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="ND215">
         <f t="shared" ca="1" si="5"/>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="NE215">
         <f t="shared" ca="1" si="5"/>
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="NF215">
         <f t="shared" ca="1" si="5"/>
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="NG215">
         <f t="shared" ca="1" si="5"/>
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="NH215">
         <f t="shared" ca="1" si="5"/>
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="NI215">
         <f t="shared" ca="1" si="5"/>
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="NJ215">
         <f t="shared" ca="1" si="5"/>
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="NK215">
         <f t="shared" ca="1" si="5"/>
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="NL215">
         <f t="shared" ca="1" si="5"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="NM215">
         <f t="shared" ca="1" si="5"/>
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="NN215">
         <f t="shared" ca="1" si="5"/>
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="NO215">
         <f t="shared" ca="1" si="5"/>
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="NP215">
         <f t="shared" ca="1" si="5"/>
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="NQ215">
         <f t="shared" ca="1" si="5"/>
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="NR215">
         <f t="shared" ca="1" si="5"/>
@@ -5486,119 +5486,119 @@
       </c>
       <c r="NS215">
         <f t="shared" ca="1" si="5"/>
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="NT215">
         <f t="shared" ca="1" si="5"/>
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="NU215">
         <f t="shared" ca="1" si="5"/>
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="NV215">
         <f t="shared" ref="NV215:QG215" ca="1" si="6">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="NW215">
         <f t="shared" ca="1" si="6"/>
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="NX215">
         <f t="shared" ca="1" si="6"/>
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="NY215">
         <f t="shared" ca="1" si="6"/>
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="NZ215">
         <f t="shared" ca="1" si="6"/>
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="OA215">
         <f t="shared" ca="1" si="6"/>
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="OB215">
         <f t="shared" ca="1" si="6"/>
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="OC215">
         <f t="shared" ca="1" si="6"/>
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="OD215">
         <f t="shared" ca="1" si="6"/>
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="OE215">
         <f t="shared" ca="1" si="6"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="OF215">
         <f t="shared" ca="1" si="6"/>
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="OG215">
         <f t="shared" ca="1" si="6"/>
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="OH215">
         <f t="shared" ca="1" si="6"/>
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="OI215">
         <f t="shared" ca="1" si="6"/>
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="OJ215">
         <f t="shared" ca="1" si="6"/>
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="OK215">
         <f t="shared" ca="1" si="6"/>
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="OL215">
         <f t="shared" ca="1" si="6"/>
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="OM215">
         <f t="shared" ca="1" si="6"/>
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="ON215">
         <f t="shared" ca="1" si="6"/>
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="OO215">
         <f t="shared" ca="1" si="6"/>
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="OP215">
         <f t="shared" ca="1" si="6"/>
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="OQ215">
         <f t="shared" ca="1" si="6"/>
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="OR215">
         <f t="shared" ca="1" si="6"/>
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="OS215">
         <f t="shared" ca="1" si="6"/>
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="OT215">
         <f t="shared" ca="1" si="6"/>
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="OU215">
         <f t="shared" ca="1" si="6"/>
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="OV215">
         <f t="shared" ca="1" si="6"/>
@@ -5606,451 +5606,451 @@
       </c>
       <c r="OW215">
         <f t="shared" ca="1" si="6"/>
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="OX215">
         <f t="shared" ca="1" si="6"/>
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="OY215">
         <f t="shared" ca="1" si="6"/>
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="OZ215">
         <f t="shared" ca="1" si="6"/>
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="PA215">
         <f t="shared" ca="1" si="6"/>
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="PB215">
         <f t="shared" ca="1" si="6"/>
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="PC215">
         <f t="shared" ca="1" si="6"/>
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="PD215">
         <f t="shared" ca="1" si="6"/>
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="PE215">
         <f t="shared" ca="1" si="6"/>
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="PF215">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="PG215">
         <f t="shared" ca="1" si="6"/>
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="PH215">
         <f t="shared" ca="1" si="6"/>
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="PI215">
         <f t="shared" ca="1" si="6"/>
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="PJ215">
         <f t="shared" ca="1" si="6"/>
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="PK215">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="PL215">
         <f t="shared" ca="1" si="6"/>
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="PM215">
         <f t="shared" ca="1" si="6"/>
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="PN215">
         <f t="shared" ca="1" si="6"/>
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="PO215">
         <f t="shared" ca="1" si="6"/>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="PP215">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="PQ215">
         <f t="shared" ca="1" si="6"/>
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="PR215">
         <f t="shared" ca="1" si="6"/>
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="PS215">
         <f t="shared" ca="1" si="6"/>
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="PT215">
         <f t="shared" ca="1" si="6"/>
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="PU215">
         <f t="shared" ca="1" si="6"/>
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="PV215">
         <f t="shared" ca="1" si="6"/>
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="PW215">
         <f t="shared" ca="1" si="6"/>
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="PX215">
         <f t="shared" ca="1" si="6"/>
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="PY215">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="PZ215">
         <f t="shared" ca="1" si="6"/>
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="QA215">
         <f t="shared" ca="1" si="6"/>
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="QB215">
         <f t="shared" ca="1" si="6"/>
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="QC215">
         <f t="shared" ca="1" si="6"/>
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="QD215">
         <f t="shared" ca="1" si="6"/>
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="QE215">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="QF215">
         <f t="shared" ca="1" si="6"/>
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="QG215">
         <f t="shared" ca="1" si="6"/>
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="QH215">
         <f t="shared" ref="QH215:SS215" ca="1" si="7">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="QI215">
         <f t="shared" ca="1" si="7"/>
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="QJ215">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="QK215">
         <f t="shared" ca="1" si="7"/>
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="QL215">
         <f t="shared" ca="1" si="7"/>
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="QM215">
         <f t="shared" ca="1" si="7"/>
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="QN215">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="QO215">
         <f t="shared" ca="1" si="7"/>
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="QP215">
         <f t="shared" ca="1" si="7"/>
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="QQ215">
         <f t="shared" ca="1" si="7"/>
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="QR215">
         <f t="shared" ca="1" si="7"/>
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="QS215">
         <f t="shared" ca="1" si="7"/>
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="QT215">
         <f t="shared" ca="1" si="7"/>
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="QU215">
         <f t="shared" ca="1" si="7"/>
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="QV215">
         <f t="shared" ca="1" si="7"/>
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="QW215">
         <f t="shared" ca="1" si="7"/>
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="QX215">
         <f t="shared" ca="1" si="7"/>
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="QY215">
         <f t="shared" ca="1" si="7"/>
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="QZ215">
         <f t="shared" ca="1" si="7"/>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="RA215">
         <f t="shared" ca="1" si="7"/>
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="RB215">
         <f t="shared" ca="1" si="7"/>
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="RC215">
         <f t="shared" ca="1" si="7"/>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="RD215">
         <f t="shared" ca="1" si="7"/>
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="RE215">
         <f t="shared" ca="1" si="7"/>
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="RF215">
         <f t="shared" ca="1" si="7"/>
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="RG215">
         <f t="shared" ca="1" si="7"/>
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="RH215">
         <f t="shared" ca="1" si="7"/>
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="RI215">
         <f t="shared" ca="1" si="7"/>
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="RJ215">
         <f t="shared" ca="1" si="7"/>
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="RK215">
         <f t="shared" ca="1" si="7"/>
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="RL215">
         <f t="shared" ca="1" si="7"/>
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="RM215">
         <f t="shared" ca="1" si="7"/>
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="RN215">
         <f t="shared" ca="1" si="7"/>
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="RO215">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="RP215">
         <f t="shared" ca="1" si="7"/>
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="RQ215">
         <f t="shared" ca="1" si="7"/>
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="RR215">
         <f t="shared" ca="1" si="7"/>
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="RS215">
         <f t="shared" ca="1" si="7"/>
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="RT215">
         <f t="shared" ca="1" si="7"/>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="RU215">
         <f t="shared" ca="1" si="7"/>
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="RV215">
         <f t="shared" ca="1" si="7"/>
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="RW215">
         <f t="shared" ca="1" si="7"/>
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="RX215">
         <f t="shared" ca="1" si="7"/>
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="RY215">
         <f t="shared" ca="1" si="7"/>
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="RZ215">
         <f t="shared" ca="1" si="7"/>
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="SA215">
         <f t="shared" ca="1" si="7"/>
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="SB215">
         <f t="shared" ca="1" si="7"/>
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="SC215">
         <f t="shared" ca="1" si="7"/>
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="SD215">
         <f t="shared" ca="1" si="7"/>
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="SE215">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="SF215">
         <f t="shared" ca="1" si="7"/>
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="SG215">
         <f t="shared" ca="1" si="7"/>
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="SH215">
         <f t="shared" ca="1" si="7"/>
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="SI215">
         <f t="shared" ca="1" si="7"/>
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="SJ215">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="SK215">
         <f t="shared" ca="1" si="7"/>
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="SL215">
         <f t="shared" ca="1" si="7"/>
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="SM215">
         <f t="shared" ca="1" si="7"/>
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="SN215">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="SO215">
         <f t="shared" ca="1" si="7"/>
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="SP215">
         <f t="shared" ca="1" si="7"/>
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="SQ215">
         <f t="shared" ca="1" si="7"/>
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="SR215">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="SS215">
         <f t="shared" ca="1" si="7"/>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="ST215">
         <f t="shared" ref="ST215:VE215" ca="1" si="8">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="SU215">
         <f t="shared" ca="1" si="8"/>
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="SV215">
         <f t="shared" ca="1" si="8"/>
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="SW215">
         <f t="shared" ca="1" si="8"/>
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="SX215">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="SY215">
         <f t="shared" ca="1" si="8"/>
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="SZ215">
         <f t="shared" ca="1" si="8"/>
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="TA215">
         <f t="shared" ca="1" si="8"/>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="TB215">
         <f t="shared" ca="1" si="8"/>
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="TC215">
         <f t="shared" ca="1" si="8"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="TD215">
         <f t="shared" ca="1" si="8"/>
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="TE215">
         <f t="shared" ca="1" si="8"/>
@@ -6058,103 +6058,103 @@
       </c>
       <c r="TF215">
         <f t="shared" ca="1" si="8"/>
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="TG215">
         <f t="shared" ca="1" si="8"/>
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="TH215">
         <f t="shared" ca="1" si="8"/>
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="TI215">
         <f t="shared" ca="1" si="8"/>
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="TJ215">
         <f t="shared" ca="1" si="8"/>
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="TK215">
         <f t="shared" ca="1" si="8"/>
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="TL215">
         <f t="shared" ca="1" si="8"/>
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="TM215">
         <f t="shared" ca="1" si="8"/>
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="TN215">
         <f t="shared" ca="1" si="8"/>
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="TO215">
         <f t="shared" ca="1" si="8"/>
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="TP215">
         <f t="shared" ca="1" si="8"/>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="TQ215">
         <f t="shared" ca="1" si="8"/>
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="TR215">
         <f t="shared" ca="1" si="8"/>
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="TS215">
         <f t="shared" ca="1" si="8"/>
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="TT215">
         <f t="shared" ca="1" si="8"/>
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="TU215">
         <f t="shared" ca="1" si="8"/>
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="TV215">
         <f t="shared" ca="1" si="8"/>
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="TW215">
         <f t="shared" ca="1" si="8"/>
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="TX215">
         <f t="shared" ca="1" si="8"/>
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="TY215">
         <f t="shared" ca="1" si="8"/>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="TZ215">
         <f t="shared" ca="1" si="8"/>
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="UA215">
         <f t="shared" ca="1" si="8"/>
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="UB215">
         <f t="shared" ca="1" si="8"/>
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="UC215">
         <f t="shared" ca="1" si="8"/>
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="UD215">
         <f t="shared" ca="1" si="8"/>
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="UE215">
         <f t="shared" ca="1" si="8"/>
@@ -6162,275 +6162,275 @@
       </c>
       <c r="UF215">
         <f t="shared" ca="1" si="8"/>
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="UG215">
         <f t="shared" ca="1" si="8"/>
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="UH215">
         <f t="shared" ca="1" si="8"/>
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="UI215">
         <f t="shared" ca="1" si="8"/>
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="UJ215">
         <f t="shared" ca="1" si="8"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="UK215">
         <f t="shared" ca="1" si="8"/>
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="UL215">
         <f t="shared" ca="1" si="8"/>
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="UM215">
         <f t="shared" ca="1" si="8"/>
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="UN215">
         <f t="shared" ca="1" si="8"/>
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="UO215">
         <f t="shared" ca="1" si="8"/>
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="UP215">
         <f t="shared" ca="1" si="8"/>
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="UQ215">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="UR215">
         <f t="shared" ca="1" si="8"/>
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="US215">
         <f t="shared" ca="1" si="8"/>
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="UT215">
         <f t="shared" ca="1" si="8"/>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="UU215">
         <f t="shared" ca="1" si="8"/>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="UV215">
         <f t="shared" ca="1" si="8"/>
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="UW215">
         <f t="shared" ca="1" si="8"/>
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="UX215">
         <f t="shared" ca="1" si="8"/>
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="UY215">
         <f t="shared" ca="1" si="8"/>
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="UZ215">
         <f t="shared" ca="1" si="8"/>
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="VA215">
         <f t="shared" ca="1" si="8"/>
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="VB215">
         <f t="shared" ca="1" si="8"/>
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="VC215">
         <f t="shared" ca="1" si="8"/>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="VD215">
         <f t="shared" ca="1" si="8"/>
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="VE215">
         <f t="shared" ca="1" si="8"/>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="VF215">
         <f t="shared" ref="VF215:XQ215" ca="1" si="9">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="VG215">
         <f t="shared" ca="1" si="9"/>
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="VH215">
         <f t="shared" ca="1" si="9"/>
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="VI215">
         <f t="shared" ca="1" si="9"/>
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="VJ215">
         <f t="shared" ca="1" si="9"/>
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="VK215">
         <f t="shared" ca="1" si="9"/>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="VL215">
         <f t="shared" ca="1" si="9"/>
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="VM215">
         <f t="shared" ca="1" si="9"/>
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="VN215">
         <f t="shared" ca="1" si="9"/>
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="VO215">
         <f t="shared" ca="1" si="9"/>
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="VP215">
         <f t="shared" ca="1" si="9"/>
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="VQ215">
         <f t="shared" ca="1" si="9"/>
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="VR215">
         <f t="shared" ca="1" si="9"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="VS215">
         <f t="shared" ca="1" si="9"/>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="VT215">
         <f t="shared" ca="1" si="9"/>
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="VU215">
         <f t="shared" ca="1" si="9"/>
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="VV215">
         <f t="shared" ca="1" si="9"/>
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="VW215">
         <f t="shared" ca="1" si="9"/>
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="VX215">
         <f t="shared" ca="1" si="9"/>
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="VY215">
         <f t="shared" ca="1" si="9"/>
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="VZ215">
         <f t="shared" ca="1" si="9"/>
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="WA215">
         <f t="shared" ca="1" si="9"/>
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="WB215">
         <f t="shared" ca="1" si="9"/>
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="WC215">
         <f t="shared" ca="1" si="9"/>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="WD215">
         <f t="shared" ca="1" si="9"/>
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="WE215">
         <f t="shared" ca="1" si="9"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="WF215">
         <f t="shared" ca="1" si="9"/>
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="WG215">
         <f t="shared" ca="1" si="9"/>
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="WH215">
         <f t="shared" ca="1" si="9"/>
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="WI215">
         <f t="shared" ca="1" si="9"/>
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="WJ215">
         <f t="shared" ca="1" si="9"/>
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="WK215">
         <f t="shared" ca="1" si="9"/>
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="WL215">
         <f t="shared" ca="1" si="9"/>
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="WM215">
         <f t="shared" ca="1" si="9"/>
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="WN215">
         <f t="shared" ca="1" si="9"/>
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="WO215">
         <f t="shared" ca="1" si="9"/>
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="WP215">
         <f t="shared" ca="1" si="9"/>
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="WQ215">
         <f t="shared" ca="1" si="9"/>
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="WR215">
         <f t="shared" ca="1" si="9"/>
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="WS215">
         <f t="shared" ca="1" si="9"/>
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="WT215">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="WU215">
         <f t="shared" ca="1" si="9"/>
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="WV215">
         <f t="shared" ca="1" si="9"/>
@@ -6438,1319 +6438,1319 @@
       </c>
       <c r="WW215">
         <f t="shared" ca="1" si="9"/>
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="WX215">
         <f t="shared" ca="1" si="9"/>
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="WY215">
         <f t="shared" ca="1" si="9"/>
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="WZ215">
         <f t="shared" ca="1" si="9"/>
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="XA215">
         <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="XB215">
         <f t="shared" ca="1" si="9"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="XC215">
         <f t="shared" ca="1" si="9"/>
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="XD215">
         <f t="shared" ca="1" si="9"/>
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="XE215">
         <f t="shared" ca="1" si="9"/>
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="XF215">
         <f t="shared" ca="1" si="9"/>
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="XG215">
         <f t="shared" ca="1" si="9"/>
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="XH215">
         <f t="shared" ca="1" si="9"/>
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="XI215">
         <f t="shared" ca="1" si="9"/>
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="XJ215">
         <f t="shared" ca="1" si="9"/>
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="XK215">
         <f t="shared" ca="1" si="9"/>
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="XL215">
         <f t="shared" ca="1" si="9"/>
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="XM215">
         <f t="shared" ca="1" si="9"/>
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="XN215">
         <f t="shared" ca="1" si="9"/>
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="XO215">
         <f t="shared" ca="1" si="9"/>
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="XP215">
         <f t="shared" ca="1" si="9"/>
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="XQ215">
         <f t="shared" ca="1" si="9"/>
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="XR215">
         <f t="shared" ref="XR215:AAC215" ca="1" si="10">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="XS215">
         <f t="shared" ca="1" si="10"/>
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="XT215">
         <f t="shared" ca="1" si="10"/>
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="XU215">
         <f t="shared" ca="1" si="10"/>
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="XV215">
         <f t="shared" ca="1" si="10"/>
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="XW215">
         <f t="shared" ca="1" si="10"/>
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="XX215">
         <f t="shared" ca="1" si="10"/>
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="XY215">
         <f t="shared" ca="1" si="10"/>
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="XZ215">
         <f t="shared" ca="1" si="10"/>
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="YA215">
         <f t="shared" ca="1" si="10"/>
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="YB215">
         <f t="shared" ca="1" si="10"/>
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="YC215">
         <f t="shared" ca="1" si="10"/>
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="YD215">
         <f t="shared" ca="1" si="10"/>
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="YE215">
         <f t="shared" ca="1" si="10"/>
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="YF215">
         <f t="shared" ca="1" si="10"/>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="YG215">
         <f t="shared" ca="1" si="10"/>
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="YH215">
         <f t="shared" ca="1" si="10"/>
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="YI215">
         <f t="shared" ca="1" si="10"/>
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="YJ215">
         <f t="shared" ca="1" si="10"/>
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="YK215">
         <f t="shared" ca="1" si="10"/>
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="YL215">
         <f t="shared" ca="1" si="10"/>
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="YM215">
         <f t="shared" ca="1" si="10"/>
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="YN215">
         <f t="shared" ca="1" si="10"/>
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="YO215">
         <f t="shared" ca="1" si="10"/>
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="YP215">
         <f t="shared" ca="1" si="10"/>
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="YQ215">
         <f t="shared" ca="1" si="10"/>
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="YR215">
         <f t="shared" ca="1" si="10"/>
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="YS215">
         <f t="shared" ca="1" si="10"/>
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="YT215">
         <f t="shared" ca="1" si="10"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="YU215">
         <f t="shared" ca="1" si="10"/>
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="YV215">
         <f t="shared" ca="1" si="10"/>
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="YW215">
         <f t="shared" ca="1" si="10"/>
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="YX215">
         <f t="shared" ca="1" si="10"/>
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="YY215">
         <f t="shared" ca="1" si="10"/>
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="YZ215">
         <f t="shared" ca="1" si="10"/>
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="ZA215">
         <f t="shared" ca="1" si="10"/>
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="ZB215">
         <f t="shared" ca="1" si="10"/>
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="ZC215">
         <f t="shared" ca="1" si="10"/>
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="ZD215">
         <f t="shared" ca="1" si="10"/>
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="ZE215">
         <f t="shared" ca="1" si="10"/>
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="ZF215">
         <f t="shared" ca="1" si="10"/>
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="ZG215">
         <f t="shared" ca="1" si="10"/>
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="ZH215">
         <f t="shared" ca="1" si="10"/>
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="ZI215">
         <f t="shared" ca="1" si="10"/>
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="ZJ215">
         <f t="shared" ca="1" si="10"/>
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="ZK215">
         <f t="shared" ca="1" si="10"/>
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="ZL215">
         <f t="shared" ca="1" si="10"/>
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="ZM215">
         <f t="shared" ca="1" si="10"/>
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="ZN215">
         <f t="shared" ca="1" si="10"/>
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="ZO215">
         <f t="shared" ca="1" si="10"/>
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="ZP215">
         <f t="shared" ca="1" si="10"/>
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="ZQ215">
         <f t="shared" ca="1" si="10"/>
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="ZR215">
         <f t="shared" ca="1" si="10"/>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="ZS215">
         <f t="shared" ca="1" si="10"/>
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="ZT215">
         <f t="shared" ca="1" si="10"/>
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="ZU215">
         <f t="shared" ca="1" si="10"/>
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="ZV215">
         <f t="shared" ca="1" si="10"/>
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="ZW215">
         <f t="shared" ca="1" si="10"/>
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="ZX215">
         <f t="shared" ca="1" si="10"/>
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="ZY215">
         <f t="shared" ca="1" si="10"/>
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="ZZ215">
         <f t="shared" ca="1" si="10"/>
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="AAA215">
         <f t="shared" ca="1" si="10"/>
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="AAB215">
         <f t="shared" ca="1" si="10"/>
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="AAC215">
         <f t="shared" ca="1" si="10"/>
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="AAD215">
         <f t="shared" ref="AAD215:ACO215" ca="1" si="11">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="AAE215">
         <f t="shared" ca="1" si="11"/>
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="AAF215">
         <f t="shared" ca="1" si="11"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="AAG215">
         <f t="shared" ca="1" si="11"/>
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="AAH215">
         <f t="shared" ca="1" si="11"/>
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="AAI215">
         <f t="shared" ca="1" si="11"/>
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="AAJ215">
         <f t="shared" ca="1" si="11"/>
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AAK215">
         <f t="shared" ca="1" si="11"/>
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="AAL215">
         <f t="shared" ca="1" si="11"/>
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="AAM215">
         <f t="shared" ca="1" si="11"/>
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="AAN215">
         <f t="shared" ca="1" si="11"/>
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="AAO215">
         <f t="shared" ca="1" si="11"/>
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="AAP215">
         <f t="shared" ca="1" si="11"/>
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="AAQ215">
         <f t="shared" ca="1" si="11"/>
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="AAR215">
         <f t="shared" ca="1" si="11"/>
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="AAS215">
         <f t="shared" ca="1" si="11"/>
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="AAT215">
         <f t="shared" ca="1" si="11"/>
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="AAU215">
         <f t="shared" ca="1" si="11"/>
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="AAV215">
         <f t="shared" ca="1" si="11"/>
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="AAW215">
         <f t="shared" ca="1" si="11"/>
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AAX215">
         <f t="shared" ca="1" si="11"/>
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AAY215">
         <f t="shared" ca="1" si="11"/>
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AAZ215">
         <f t="shared" ca="1" si="11"/>
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="ABA215">
         <f t="shared" ca="1" si="11"/>
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="ABB215">
         <f t="shared" ca="1" si="11"/>
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="ABC215">
         <f t="shared" ca="1" si="11"/>
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="ABD215">
         <f t="shared" ca="1" si="11"/>
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="ABE215">
         <f t="shared" ca="1" si="11"/>
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="ABF215">
         <f t="shared" ca="1" si="11"/>
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="ABG215">
         <f t="shared" ca="1" si="11"/>
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="ABH215">
         <f t="shared" ca="1" si="11"/>
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="ABI215">
         <f t="shared" ca="1" si="11"/>
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="ABJ215">
         <f t="shared" ca="1" si="11"/>
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="ABK215">
         <f t="shared" ca="1" si="11"/>
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="ABL215">
         <f t="shared" ca="1" si="11"/>
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="ABM215">
         <f t="shared" ca="1" si="11"/>
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="ABN215">
         <f t="shared" ca="1" si="11"/>
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="ABO215">
         <f t="shared" ca="1" si="11"/>
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="ABP215">
         <f t="shared" ca="1" si="11"/>
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="ABQ215">
         <f t="shared" ca="1" si="11"/>
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="ABR215">
         <f t="shared" ca="1" si="11"/>
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="ABS215">
         <f t="shared" ca="1" si="11"/>
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="ABT215">
         <f t="shared" ca="1" si="11"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="ABU215">
         <f t="shared" ca="1" si="11"/>
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="ABV215">
         <f t="shared" ca="1" si="11"/>
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="ABW215">
         <f t="shared" ca="1" si="11"/>
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="ABX215">
         <f t="shared" ca="1" si="11"/>
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="ABY215">
         <f t="shared" ca="1" si="11"/>
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="ABZ215">
         <f t="shared" ca="1" si="11"/>
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="ACA215">
         <f t="shared" ca="1" si="11"/>
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="ACB215">
         <f t="shared" ca="1" si="11"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="ACC215">
         <f t="shared" ca="1" si="11"/>
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="ACD215">
         <f t="shared" ca="1" si="11"/>
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="ACE215">
         <f t="shared" ca="1" si="11"/>
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="ACF215">
         <f t="shared" ca="1" si="11"/>
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="ACG215">
         <f t="shared" ca="1" si="11"/>
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="ACH215">
         <f t="shared" ca="1" si="11"/>
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="ACI215">
         <f t="shared" ca="1" si="11"/>
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="ACJ215">
         <f t="shared" ca="1" si="11"/>
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="ACK215">
         <f t="shared" ca="1" si="11"/>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="ACL215">
         <f t="shared" ca="1" si="11"/>
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="ACM215">
         <f t="shared" ca="1" si="11"/>
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="ACN215">
         <f t="shared" ca="1" si="11"/>
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="ACO215">
         <f t="shared" ca="1" si="11"/>
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="ACP215">
         <f t="shared" ref="ACP215:AFA215" ca="1" si="12">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="ACQ215">
         <f t="shared" ca="1" si="12"/>
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="ACR215">
         <f t="shared" ca="1" si="12"/>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="ACS215">
         <f t="shared" ca="1" si="12"/>
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="ACT215">
         <f t="shared" ca="1" si="12"/>
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="ACU215">
         <f t="shared" ca="1" si="12"/>
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="ACV215">
         <f t="shared" ca="1" si="12"/>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="ACW215">
         <f t="shared" ca="1" si="12"/>
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="ACX215">
         <f t="shared" ca="1" si="12"/>
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="ACY215">
         <f t="shared" ca="1" si="12"/>
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="ACZ215">
         <f t="shared" ca="1" si="12"/>
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="ADA215">
         <f t="shared" ca="1" si="12"/>
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="ADB215">
         <f t="shared" ca="1" si="12"/>
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="ADC215">
         <f t="shared" ca="1" si="12"/>
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="ADD215">
         <f t="shared" ca="1" si="12"/>
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="ADE215">
         <f t="shared" ca="1" si="12"/>
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="ADF215">
         <f t="shared" ca="1" si="12"/>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="ADG215">
         <f t="shared" ca="1" si="12"/>
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="ADH215">
         <f t="shared" ca="1" si="12"/>
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="ADI215">
         <f t="shared" ca="1" si="12"/>
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="ADJ215">
         <f t="shared" ca="1" si="12"/>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="ADK215">
         <f t="shared" ca="1" si="12"/>
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="ADL215">
         <f t="shared" ca="1" si="12"/>
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="ADM215">
         <f t="shared" ca="1" si="12"/>
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="ADN215">
         <f t="shared" ca="1" si="12"/>
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="ADO215">
         <f t="shared" ca="1" si="12"/>
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="ADP215">
         <f t="shared" ca="1" si="12"/>
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="ADQ215">
         <f t="shared" ca="1" si="12"/>
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="ADR215">
         <f t="shared" ca="1" si="12"/>
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="ADS215">
         <f t="shared" ca="1" si="12"/>
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="ADT215">
         <f t="shared" ca="1" si="12"/>
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="ADU215">
         <f t="shared" ca="1" si="12"/>
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="ADV215">
         <f t="shared" ca="1" si="12"/>
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="ADW215">
         <f t="shared" ca="1" si="12"/>
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="ADX215">
         <f t="shared" ca="1" si="12"/>
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="ADY215">
         <f t="shared" ca="1" si="12"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="ADZ215">
         <f t="shared" ca="1" si="12"/>
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AEA215">
         <f t="shared" ca="1" si="12"/>
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="AEB215">
         <f t="shared" ca="1" si="12"/>
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="AEC215">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="AED215">
         <f t="shared" ca="1" si="12"/>
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="AEE215">
         <f t="shared" ca="1" si="12"/>
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="AEF215">
         <f t="shared" ca="1" si="12"/>
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="AEG215">
         <f t="shared" ca="1" si="12"/>
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="AEH215">
         <f t="shared" ca="1" si="12"/>
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="AEI215">
         <f t="shared" ca="1" si="12"/>
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="AEJ215">
         <f t="shared" ca="1" si="12"/>
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AEK215">
         <f t="shared" ca="1" si="12"/>
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AEL215">
         <f t="shared" ca="1" si="12"/>
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="AEM215">
         <f t="shared" ca="1" si="12"/>
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="AEN215">
         <f t="shared" ca="1" si="12"/>
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AEO215">
         <f t="shared" ca="1" si="12"/>
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="AEP215">
         <f t="shared" ca="1" si="12"/>
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AEQ215">
         <f t="shared" ca="1" si="12"/>
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AER215">
         <f t="shared" ca="1" si="12"/>
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="AES215">
         <f t="shared" ca="1" si="12"/>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AET215">
         <f t="shared" ca="1" si="12"/>
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AEU215">
         <f t="shared" ca="1" si="12"/>
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="AEV215">
         <f t="shared" ca="1" si="12"/>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AEW215">
         <f t="shared" ca="1" si="12"/>
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="AEX215">
         <f t="shared" ca="1" si="12"/>
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AEY215">
         <f t="shared" ca="1" si="12"/>
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AEZ215">
         <f t="shared" ca="1" si="12"/>
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="AFA215">
         <f t="shared" ca="1" si="12"/>
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="AFB215">
         <f t="shared" ref="AFB215:AHM215" ca="1" si="13">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AFC215">
         <f t="shared" ca="1" si="13"/>
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="AFD215">
         <f t="shared" ca="1" si="13"/>
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AFE215">
         <f t="shared" ca="1" si="13"/>
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="AFF215">
         <f t="shared" ca="1" si="13"/>
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="AFG215">
         <f t="shared" ca="1" si="13"/>
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="AFH215">
         <f t="shared" ca="1" si="13"/>
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="AFI215">
         <f t="shared" ca="1" si="13"/>
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="AFJ215">
         <f t="shared" ca="1" si="13"/>
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="AFK215">
         <f t="shared" ca="1" si="13"/>
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="AFL215">
         <f t="shared" ca="1" si="13"/>
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="AFM215">
         <f t="shared" ca="1" si="13"/>
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="AFN215">
         <f t="shared" ca="1" si="13"/>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AFO215">
         <f t="shared" ca="1" si="13"/>
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="AFP215">
         <f t="shared" ca="1" si="13"/>
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="AFQ215">
         <f t="shared" ca="1" si="13"/>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AFR215">
         <f t="shared" ca="1" si="13"/>
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="AFS215">
         <f t="shared" ca="1" si="13"/>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AFT215">
         <f t="shared" ca="1" si="13"/>
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="AFU215">
         <f t="shared" ca="1" si="13"/>
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="AFV215">
         <f t="shared" ca="1" si="13"/>
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="AFW215">
         <f t="shared" ca="1" si="13"/>
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="AFX215">
         <f t="shared" ca="1" si="13"/>
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="AFY215">
         <f t="shared" ca="1" si="13"/>
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="AFZ215">
         <f t="shared" ca="1" si="13"/>
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="AGA215">
         <f t="shared" ca="1" si="13"/>
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="AGB215">
         <f t="shared" ca="1" si="13"/>
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="AGC215">
         <f t="shared" ca="1" si="13"/>
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="AGD215">
         <f t="shared" ca="1" si="13"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AGE215">
         <f t="shared" ca="1" si="13"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AGF215">
         <f t="shared" ca="1" si="13"/>
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="AGG215">
         <f t="shared" ca="1" si="13"/>
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="AGH215">
         <f t="shared" ca="1" si="13"/>
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="AGI215">
         <f t="shared" ca="1" si="13"/>
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AGJ215">
         <f t="shared" ca="1" si="13"/>
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="AGK215">
         <f t="shared" ca="1" si="13"/>
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="AGL215">
         <f t="shared" ca="1" si="13"/>
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="AGM215">
         <f t="shared" ca="1" si="13"/>
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="AGN215">
         <f t="shared" ca="1" si="13"/>
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="AGO215">
         <f t="shared" ca="1" si="13"/>
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="AGP215">
         <f t="shared" ca="1" si="13"/>
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="AGQ215">
         <f t="shared" ca="1" si="13"/>
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="AGR215">
         <f t="shared" ca="1" si="13"/>
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="AGS215">
         <f t="shared" ca="1" si="13"/>
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AGT215">
         <f t="shared" ca="1" si="13"/>
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="AGU215">
         <f t="shared" ca="1" si="13"/>
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="AGV215">
         <f t="shared" ca="1" si="13"/>
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="AGW215">
         <f t="shared" ca="1" si="13"/>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AGX215">
         <f t="shared" ca="1" si="13"/>
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="AGY215">
         <f t="shared" ca="1" si="13"/>
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AGZ215">
         <f t="shared" ca="1" si="13"/>
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="AHA215">
         <f t="shared" ca="1" si="13"/>
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="AHB215">
         <f t="shared" ca="1" si="13"/>
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="AHC215">
         <f t="shared" ca="1" si="13"/>
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AHD215">
         <f t="shared" ca="1" si="13"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="AHE215">
         <f t="shared" ca="1" si="13"/>
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AHF215">
         <f t="shared" ca="1" si="13"/>
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="AHG215">
         <f t="shared" ca="1" si="13"/>
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="AHH215">
         <f t="shared" ca="1" si="13"/>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AHI215">
         <f t="shared" ca="1" si="13"/>
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="AHJ215">
         <f t="shared" ca="1" si="13"/>
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="AHK215">
         <f t="shared" ca="1" si="13"/>
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="AHL215">
         <f t="shared" ca="1" si="13"/>
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AHM215">
         <f t="shared" ca="1" si="13"/>
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="AHN215">
         <f t="shared" ref="AHN215:AJY215" ca="1" si="14">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="AHO215">
         <f t="shared" ca="1" si="14"/>
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="AHP215">
         <f t="shared" ca="1" si="14"/>
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="AHQ215">
         <f t="shared" ca="1" si="14"/>
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="AHR215">
         <f t="shared" ca="1" si="14"/>
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="AHS215">
         <f t="shared" ca="1" si="14"/>
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="AHT215">
         <f t="shared" ca="1" si="14"/>
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="AHU215">
         <f t="shared" ca="1" si="14"/>
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="AHV215">
         <f t="shared" ca="1" si="14"/>
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="AHW215">
         <f t="shared" ca="1" si="14"/>
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="AHX215">
         <f t="shared" ca="1" si="14"/>
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="AHY215">
         <f t="shared" ca="1" si="14"/>
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="AHZ215">
         <f t="shared" ca="1" si="14"/>
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="AIA215">
         <f t="shared" ca="1" si="14"/>
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="AIB215">
         <f t="shared" ca="1" si="14"/>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AIC215">
         <f t="shared" ca="1" si="14"/>
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="AID215">
         <f t="shared" ca="1" si="14"/>
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="AIE215">
         <f t="shared" ca="1" si="14"/>
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="AIF215">
         <f t="shared" ca="1" si="14"/>
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="AIG215">
         <f t="shared" ca="1" si="14"/>
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AIH215">
         <f t="shared" ca="1" si="14"/>
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="AII215">
         <f t="shared" ca="1" si="14"/>
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="AIJ215">
         <f t="shared" ca="1" si="14"/>
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="AIK215">
         <f t="shared" ca="1" si="14"/>
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="AIL215">
         <f t="shared" ca="1" si="14"/>
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AIM215">
         <f t="shared" ca="1" si="14"/>
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="AIN215">
         <f t="shared" ca="1" si="14"/>
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="AIO215">
         <f t="shared" ca="1" si="14"/>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AIP215">
         <f t="shared" ca="1" si="14"/>
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="AIQ215">
         <f t="shared" ca="1" si="14"/>
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="AIR215">
         <f t="shared" ca="1" si="14"/>
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AIS215">
         <f t="shared" ca="1" si="14"/>
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="AIT215">
         <f t="shared" ca="1" si="14"/>
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="AIU215">
         <f t="shared" ca="1" si="14"/>
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="AIV215">
         <f t="shared" ca="1" si="14"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AIW215">
         <f t="shared" ca="1" si="14"/>
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="AIX215">
         <f t="shared" ca="1" si="14"/>
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="AIY215">
         <f t="shared" ca="1" si="14"/>
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="AIZ215">
         <f t="shared" ca="1" si="14"/>
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="AJA215">
         <f t="shared" ca="1" si="14"/>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJB215">
         <f t="shared" ca="1" si="14"/>
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="AJC215">
         <f t="shared" ca="1" si="14"/>
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="AJD215">
         <f t="shared" ca="1" si="14"/>
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="AJE215">
         <f t="shared" ca="1" si="14"/>
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="AJF215">
         <f t="shared" ca="1" si="14"/>
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AJG215">
         <f t="shared" ca="1" si="14"/>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AJH215">
         <f t="shared" ca="1" si="14"/>
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="AJI215">
         <f t="shared" ca="1" si="14"/>
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="AJJ215">
         <f t="shared" ca="1" si="14"/>
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="AJK215">
         <f t="shared" ca="1" si="14"/>
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="AJL215">
         <f t="shared" ca="1" si="14"/>
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="AJM215">
         <f t="shared" ca="1" si="14"/>
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AJN215">
         <f t="shared" ca="1" si="14"/>
@@ -7758,218 +7758,218 @@
       </c>
       <c r="AJO215">
         <f t="shared" ca="1" si="14"/>
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="AJP215">
         <f t="shared" ca="1" si="14"/>
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AJQ215">
         <f t="shared" ca="1" si="14"/>
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="AJR215">
         <f t="shared" ca="1" si="14"/>
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="AJS215">
         <f t="shared" ca="1" si="14"/>
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="AJT215">
         <f t="shared" ca="1" si="14"/>
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="AJU215">
         <f t="shared" ca="1" si="14"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="AJV215">
         <f t="shared" ca="1" si="14"/>
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="AJW215">
         <f t="shared" ca="1" si="14"/>
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="AJX215">
         <f t="shared" ca="1" si="14"/>
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="AJY215">
         <f t="shared" ca="1" si="14"/>
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="AJZ215">
         <f t="shared" ref="AJZ215:ALL215" ca="1" si="15">INT(MIN(100,MAX(0,_xlfn.NORM.INV(RAND(),50,15))))</f>
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="AKA215">
         <f t="shared" ca="1" si="15"/>
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="AKB215">
         <f t="shared" ca="1" si="15"/>
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="AKC215">
         <f t="shared" ca="1" si="15"/>
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="AKD215">
         <f t="shared" ca="1" si="15"/>
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="AKE215">
         <f t="shared" ca="1" si="15"/>
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="AKF215">
         <f t="shared" ca="1" si="15"/>
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AKG215">
         <f t="shared" ca="1" si="15"/>
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="AKH215">
         <f t="shared" ca="1" si="15"/>
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="AKI215">
         <f t="shared" ca="1" si="15"/>
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AKJ215">
         <f t="shared" ca="1" si="15"/>
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="AKK215">
         <f t="shared" ca="1" si="15"/>
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="AKL215">
         <f t="shared" ca="1" si="15"/>
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="AKM215">
         <f t="shared" ca="1" si="15"/>
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="AKN215">
         <f t="shared" ca="1" si="15"/>
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="AKO215">
         <f t="shared" ca="1" si="15"/>
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="AKP215">
         <f t="shared" ca="1" si="15"/>
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AKQ215">
         <f t="shared" ca="1" si="15"/>
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="AKR215">
         <f t="shared" ca="1" si="15"/>
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="AKS215">
         <f t="shared" ca="1" si="15"/>
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AKT215">
         <f t="shared" ca="1" si="15"/>
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="AKU215">
         <f t="shared" ca="1" si="15"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AKV215">
         <f t="shared" ca="1" si="15"/>
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="AKW215">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="AKX215">
         <f t="shared" ca="1" si="15"/>
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="AKY215">
         <f t="shared" ca="1" si="15"/>
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="AKZ215">
         <f t="shared" ca="1" si="15"/>
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="ALA215">
         <f t="shared" ca="1" si="15"/>
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="ALB215">
         <f t="shared" ca="1" si="15"/>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="ALC215">
         <f t="shared" ca="1" si="15"/>
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="ALD215">
         <f t="shared" ca="1" si="15"/>
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="ALE215">
         <f t="shared" ca="1" si="15"/>
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="ALF215">
         <f t="shared" ca="1" si="15"/>
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="ALG215">
         <f t="shared" ca="1" si="15"/>
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="ALH215">
         <f t="shared" ca="1" si="15"/>
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="ALI215">
         <f t="shared" ca="1" si="15"/>
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="ALJ215">
         <f t="shared" ca="1" si="15"/>
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="ALK215">
         <f t="shared" ca="1" si="15"/>
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="ALL215">
         <f t="shared" ca="1" si="15"/>
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="216" spans="1:16384">
       <c r="A216" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="217" spans="1:16384">
       <c r="A217" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="218" spans="1:16384">
       <c r="A218" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="219" spans="1:16384">
@@ -24360,50 +24360,50 @@
     </row>
     <row r="221" spans="1:16384">
       <c r="A221" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="222" spans="1:16384">
       <c r="A222" s="6"/>
       <c r="B222" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="223" spans="1:16384">
       <c r="A223" s="6"/>
       <c r="B223" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="224" spans="1:16384">
       <c r="A224" s="6"/>
       <c r="B224" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="226" spans="1:6">
       <c r="A226" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="228" spans="1:6">
       <c r="A228" t="s">
+        <v>113</v>
+      </c>
+      <c r="B228" t="s">
+        <v>109</v>
+      </c>
+      <c r="C228" t="s">
         <v>114</v>
       </c>
-      <c r="B228" t="s">
+      <c r="D228" t="s">
         <v>110</v>
       </c>
-      <c r="C228" t="s">
-        <v>115</v>
-      </c>
-      <c r="D228" t="s">
-        <v>111</v>
-      </c>
       <c r="E228" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F228" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -24528,7 +24528,7 @@
     </row>
     <row r="239" spans="1:6">
       <c r="B239" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D239" s="6"/>
       <c r="E239" s="6"/>
@@ -24536,13 +24536,13 @@
     </row>
     <row r="240" spans="1:6">
       <c r="D240" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="241" spans="5:6">
@@ -24551,10 +24551,10 @@
     </row>
     <row r="242" spans="5:6">
       <c r="E242" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="243" spans="5:6">
@@ -24562,7 +24562,7 @@
     </row>
     <row r="244" spans="5:6">
       <c r="F244" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
